--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597384832279909</v>
+        <v>0.9597384832279922</v>
       </c>
       <c r="D2">
-        <v>0.9864219036075484</v>
+        <v>0.9864219036075497</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9343228540038832</v>
+        <v>0.9343228540038842</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029631267786887</v>
+        <v>1.029631267786888</v>
       </c>
       <c r="J2">
-        <v>0.9831939149080839</v>
+        <v>0.9831939149080852</v>
       </c>
       <c r="K2">
-        <v>0.9980737010843655</v>
+        <v>0.9980737010843668</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9467799105706995</v>
+        <v>0.9467799105707007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9711704268988253</v>
+        <v>0.9711704268988226</v>
       </c>
       <c r="D3">
-        <v>0.9949181035292922</v>
+        <v>0.9949181035292906</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9490333572054618</v>
+        <v>0.9490333572054593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033429656067699</v>
+        <v>1.033429656067698</v>
       </c>
       <c r="J3">
-        <v>0.9924791074670607</v>
+        <v>0.9924791074670585</v>
       </c>
       <c r="K3">
-        <v>1.005616423806955</v>
+        <v>1.005616423806953</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9603627554958142</v>
+        <v>0.960362755495812</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9781899438924996</v>
+        <v>0.9781899438924988</v>
       </c>
       <c r="D4">
-        <v>1.000136976106139</v>
+        <v>1.000136976106138</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9580508728849323</v>
+        <v>0.9580508728849318</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.035740620536893</v>
       </c>
       <c r="J4">
-        <v>0.9981685000416111</v>
+        <v>0.9981685000416104</v>
       </c>
       <c r="K4">
-        <v>1.010233748228061</v>
+        <v>1.01023374822806</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9686834186467799</v>
+        <v>0.9686834186467793</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9810591380547591</v>
+        <v>0.9810591380547588</v>
       </c>
       <c r="D5">
-        <v>1.002270371377753</v>
+        <v>1.002270371377752</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9617341216150964</v>
+        <v>0.961734121615096</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.00049112384304</v>
       </c>
       <c r="K5">
-        <v>1.012117557595112</v>
+        <v>1.012117557595111</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>0.9720805885140253</v>
+        <v>0.972080588514025</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9815363159647281</v>
+        <v>0.9815363159647287</v>
       </c>
       <c r="D6">
         <v>1.002625182913635</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9623465576328127</v>
+        <v>0.9623465576328131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03683591130735</v>
+        <v>1.036835911307351</v>
       </c>
       <c r="J6">
         <v>1.00087723059587</v>
@@ -597,10 +597,10 @@
         <v>1.01243064618888</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>0.9726453687061278</v>
+        <v>0.9726453687061283</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9782285933045684</v>
+        <v>0.9782285933045697</v>
       </c>
       <c r="D7">
-        <v>1.000165713470726</v>
+        <v>1.000165713470727</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9581004971924398</v>
+        <v>0.9581004971924414</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035753295229327</v>
+        <v>1.035753295229328</v>
       </c>
       <c r="J7">
-        <v>0.9981997983977603</v>
+        <v>0.9981997983977619</v>
       </c>
       <c r="K7">
-        <v>1.010259138095284</v>
+        <v>1.010259138095285</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>0.968729194493228</v>
+        <v>0.9687291944932297</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9636858287691212</v>
+        <v>0.9636858287691213</v>
       </c>
       <c r="D8">
-        <v>0.9893549590067886</v>
+        <v>0.9893549590067888</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9394061927145405</v>
+        <v>0.9394061927145406</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9514747077084035</v>
+        <v>0.9514747077084038</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9346829272756155</v>
+        <v>0.9346829272756142</v>
       </c>
       <c r="D9">
-        <v>0.9678277875174686</v>
+        <v>0.9678277875174672</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9019298854093034</v>
+        <v>0.9019298854093021</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021185768526947</v>
       </c>
       <c r="J9">
-        <v>0.9627735338699969</v>
+        <v>0.9627735338699955</v>
       </c>
       <c r="K9">
-        <v>0.981465333690867</v>
+        <v>0.9814653336908654</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9168433715572057</v>
+        <v>0.9168433715572045</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9121755709397374</v>
+        <v>0.9121755709397337</v>
       </c>
       <c r="D10">
-        <v>0.9511743160330149</v>
+        <v>0.9511743160330118</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.8725803791434297</v>
+        <v>0.8725803791434252</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013496149490293</v>
+        <v>1.013496149490291</v>
       </c>
       <c r="J10">
-        <v>0.9443658205642792</v>
+        <v>0.9443658205642758</v>
       </c>
       <c r="K10">
-        <v>0.9664848785836931</v>
+        <v>0.9664848785836901</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.8897066519577383</v>
+        <v>0.889706651957734</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9013726555624012</v>
+        <v>0.9013726555624049</v>
       </c>
       <c r="D11">
-        <v>0.9432029169575219</v>
+        <v>0.9432029169575246</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8583827967780635</v>
+        <v>0.8583827967780674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009780806086859</v>
+        <v>1.00978080608686</v>
       </c>
       <c r="J11">
-        <v>0.9355134751115456</v>
+        <v>0.9355134751115488</v>
       </c>
       <c r="K11">
-        <v>0.9592817779200727</v>
+        <v>0.9592817779200755</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.8765809278269207</v>
+        <v>0.8765809278269245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8971627037702005</v>
+        <v>0.8971627037702026</v>
       </c>
       <c r="D12">
-        <v>0.940100773869188</v>
+        <v>0.9401007738691899</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.8528272166242503</v>
+        <v>0.8528272166242532</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008329549922002</v>
+        <v>1.008329549922003</v>
       </c>
       <c r="J12">
-        <v>0.9320610321749377</v>
+        <v>0.9320610321749399</v>
       </c>
       <c r="K12">
-        <v>0.9564731440358947</v>
+        <v>0.9564731440358966</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.8714456623065389</v>
+        <v>0.8714456623065417</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980754634634707</v>
+        <v>0.8980754634634691</v>
       </c>
       <c r="D13">
-        <v>0.9407731334828295</v>
+        <v>0.9407731334828282</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367008</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.8540328664881868</v>
+        <v>0.854032866488185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008644341983772</v>
+        <v>1.008644341983771</v>
       </c>
       <c r="J13">
-        <v>0.9328096764777754</v>
+        <v>0.932809676477774</v>
       </c>
       <c r="K13">
-        <v>0.9570821462213382</v>
+        <v>0.957082146221337</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964245</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>0.8725600432433822</v>
+        <v>0.8725600432433807</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9010289601892085</v>
+        <v>0.9010289601892055</v>
       </c>
       <c r="D14">
-        <v>0.9429495671517415</v>
+        <v>0.9429495671517389</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194315</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.8579297452704235</v>
+        <v>0.8579297452704197</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009662392757113</v>
+        <v>1.009662392757112</v>
       </c>
       <c r="J14">
-        <v>0.9352316753574268</v>
+        <v>0.935231675357424</v>
       </c>
       <c r="K14">
-        <v>0.9590525129567998</v>
+        <v>0.9590525129567972</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764517</v>
+        <v>0.9490745509764518</v>
       </c>
       <c r="M14">
-        <v>0.876162129798051</v>
+        <v>0.8761621297980471</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9028211642875836</v>
+        <v>0.9028211642875827</v>
       </c>
       <c r="D15">
-        <v>0.9442708448652354</v>
+        <v>0.944270844865234</v>
       </c>
       <c r="E15">
         <v>0.9332781050717471</v>
       </c>
       <c r="F15">
-        <v>0.8602912350156503</v>
+        <v>0.8602912350156494</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010279727585316</v>
       </c>
       <c r="J15">
-        <v>0.9367010175419846</v>
+        <v>0.9367010175419836</v>
       </c>
       <c r="K15">
-        <v>0.9602479585580809</v>
+        <v>0.9602479585580798</v>
       </c>
       <c r="L15">
         <v>0.9494987508767191</v>
       </c>
       <c r="M15">
-        <v>0.8783451167924531</v>
+        <v>0.8783451167924523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9128672868029124</v>
+        <v>0.912867286802913</v>
       </c>
       <c r="D16">
-        <v>0.9516852495320708</v>
+        <v>0.9516852495320711</v>
       </c>
       <c r="E16">
         <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.87348678031014</v>
+        <v>0.8734867803101412</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.013733574561372</v>
       </c>
       <c r="J16">
-        <v>0.9449322910246549</v>
+        <v>0.9449322910246551</v>
       </c>
       <c r="K16">
-        <v>0.9669458664933931</v>
+        <v>0.9669458664933935</v>
       </c>
       <c r="L16">
         <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.8905447018136204</v>
+        <v>0.8905447018136212</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -994,13 +994,13 @@
         <v>0.9188629285946266</v>
       </c>
       <c r="D17">
-        <v>0.9561163826925836</v>
+        <v>0.9561163826925838</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855668</v>
       </c>
       <c r="F17">
-        <v>0.8813307356679942</v>
+        <v>0.8813307356679945</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>0.9498404606953356</v>
       </c>
       <c r="K17">
-        <v>0.9709402375071543</v>
+        <v>0.9709402375071544</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.8977973546023233</v>
+        <v>0.8977973546023236</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.922261268493234</v>
+        <v>0.9222612684932375</v>
       </c>
       <c r="D18">
-        <v>0.9586298527949948</v>
+        <v>0.9586298527949976</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.885767151852884</v>
+        <v>0.8857671518528875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016951578265241</v>
+        <v>1.016951578265242</v>
       </c>
       <c r="J18">
-        <v>0.9526208730408002</v>
+        <v>0.9526208730408039</v>
       </c>
       <c r="K18">
-        <v>0.9732030589060996</v>
+        <v>0.9732030589061026</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865728</v>
       </c>
       <c r="M18">
-        <v>0.9018994179643114</v>
+        <v>0.9018994179643151</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9234042049269948</v>
+        <v>0.9234042049269957</v>
       </c>
       <c r="D19">
-        <v>0.9594754837552136</v>
+        <v>0.9594754837552149</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680088</v>
       </c>
       <c r="F19">
-        <v>0.8872577344175012</v>
+        <v>0.8872577344175022</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.017342232450048</v>
       </c>
       <c r="J19">
-        <v>0.9535557254517359</v>
+        <v>0.9535557254517368</v>
       </c>
       <c r="K19">
-        <v>0.9739638831594446</v>
+        <v>0.9739638831594457</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812709</v>
       </c>
       <c r="M19">
-        <v>0.9032776601289495</v>
+        <v>0.9032776601289505</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.918230107701476</v>
+        <v>0.9182301077014765</v>
       </c>
       <c r="D20">
-        <v>0.9556484859793265</v>
+        <v>0.9556484859793267</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.8805038644326351</v>
+        <v>0.8805038644326354</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.015572177010589</v>
       </c>
       <c r="J20">
-        <v>0.9493225809912327</v>
+        <v>0.949322580991233</v>
       </c>
       <c r="K20">
-        <v>0.9705187669358942</v>
+        <v>0.9705187669358945</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.8970328035697188</v>
+        <v>0.8970328035697189</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9001650588628261</v>
+        <v>0.9001650588628282</v>
       </c>
       <c r="D21">
-        <v>0.9423128290797718</v>
+        <v>0.9423128290797733</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148885</v>
+        <v>0.9324872132148881</v>
       </c>
       <c r="F21">
-        <v>0.856790582707068</v>
+        <v>0.8567905827070706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009364700436664</v>
+        <v>1.009364700436665</v>
       </c>
       <c r="J21">
-        <v>0.9345233104141466</v>
+        <v>0.9345233104141486</v>
       </c>
       <c r="K21">
-        <v>0.9584762169162848</v>
+        <v>0.9584762169162863</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981058</v>
+        <v>0.9488714019981056</v>
       </c>
       <c r="M21">
-        <v>0.8751091119193299</v>
+        <v>0.8751091119193323</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8876336063259175</v>
+        <v>0.8876336063259167</v>
       </c>
       <c r="D22">
-        <v>0.9330888415572341</v>
+        <v>0.9330888415572334</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.8402003920061755</v>
+        <v>0.8402003920061744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005038816075759</v>
+        <v>1.005038816075758</v>
       </c>
       <c r="J22">
-        <v>0.9242414614049433</v>
+        <v>0.9242414614049428</v>
       </c>
       <c r="K22">
-        <v>0.9501135237131878</v>
+        <v>0.9501135237131871</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8597768655110259</v>
+        <v>0.8597768655110248</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8944052400580808</v>
+        <v>0.8944052400580809</v>
       </c>
       <c r="D23">
-        <v>0.9380703040705443</v>
+        <v>0.9380703040705441</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.8491809685357841</v>
+        <v>0.8491809685357843</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.007378093063733</v>
       </c>
       <c r="J23">
-        <v>0.9297989684031371</v>
+        <v>0.9297989684031374</v>
       </c>
       <c r="K23">
-        <v>0.954633146115489</v>
+        <v>0.9546331461154888</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
         <v>0.8680756397061667</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9185163548762724</v>
+        <v>0.9185163548762729</v>
       </c>
       <c r="D24">
-        <v>0.9558601262826879</v>
+        <v>0.9558601262826885</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011711</v>
       </c>
       <c r="F24">
-        <v>0.8808779168756897</v>
+        <v>0.8808779168756906</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.015670204041917</v>
       </c>
       <c r="J24">
-        <v>0.9495568410513338</v>
+        <v>0.9495568410513344</v>
       </c>
       <c r="K24">
-        <v>0.9707094166806656</v>
+        <v>0.9707094166806662</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9533716596442454</v>
       </c>
       <c r="M24">
-        <v>0.8973786639683871</v>
+        <v>0.8973786639683878</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9426595299726857</v>
+        <v>0.942659529972686</v>
       </c>
       <c r="D25">
-        <v>0.973742135570917</v>
+        <v>0.9737421355709174</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9122694217572311</v>
+        <v>0.9122694217572312</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.023889826963573</v>
       </c>
       <c r="J25">
-        <v>0.9692836889602636</v>
+        <v>0.969283688960264</v>
       </c>
       <c r="K25">
-        <v>0.986762223229708</v>
+        <v>0.9867622232297082</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9264016307707937</v>
+        <v>0.926401630770794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597384832279922</v>
+        <v>0.9597384832279909</v>
       </c>
       <c r="D2">
-        <v>0.9864219036075497</v>
+        <v>0.9864219036075484</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9343228540038842</v>
+        <v>0.9343228540038832</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029631267786888</v>
+        <v>1.029631267786887</v>
       </c>
       <c r="J2">
-        <v>0.9831939149080852</v>
+        <v>0.9831939149080839</v>
       </c>
       <c r="K2">
-        <v>0.9980737010843668</v>
+        <v>0.9980737010843655</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9467799105707007</v>
+        <v>0.9467799105706995</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9711704268988226</v>
+        <v>0.9711704268988253</v>
       </c>
       <c r="D3">
-        <v>0.9949181035292906</v>
+        <v>0.9949181035292922</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9490333572054593</v>
+        <v>0.9490333572054618</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033429656067698</v>
+        <v>1.033429656067699</v>
       </c>
       <c r="J3">
-        <v>0.9924791074670585</v>
+        <v>0.9924791074670607</v>
       </c>
       <c r="K3">
-        <v>1.005616423806953</v>
+        <v>1.005616423806955</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.960362755495812</v>
+        <v>0.9603627554958142</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9781899438924988</v>
+        <v>0.9781899438924996</v>
       </c>
       <c r="D4">
-        <v>1.000136976106138</v>
+        <v>1.000136976106139</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9580508728849318</v>
+        <v>0.9580508728849323</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.035740620536893</v>
       </c>
       <c r="J4">
-        <v>0.9981685000416104</v>
+        <v>0.9981685000416111</v>
       </c>
       <c r="K4">
-        <v>1.01023374822806</v>
+        <v>1.010233748228061</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9686834186467793</v>
+        <v>0.9686834186467799</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9810591380547588</v>
+        <v>0.9810591380547591</v>
       </c>
       <c r="D5">
-        <v>1.002270371377752</v>
+        <v>1.002270371377753</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.961734121615096</v>
+        <v>0.9617341216150964</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.00049112384304</v>
       </c>
       <c r="K5">
-        <v>1.012117557595111</v>
+        <v>1.012117557595112</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.972080588514025</v>
+        <v>0.9720805885140253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9815363159647287</v>
+        <v>0.9815363159647281</v>
       </c>
       <c r="D6">
         <v>1.002625182913635</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9623465576328131</v>
+        <v>0.9623465576328127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036835911307351</v>
+        <v>1.03683591130735</v>
       </c>
       <c r="J6">
         <v>1.00087723059587</v>
@@ -597,10 +597,10 @@
         <v>1.01243064618888</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9726453687061283</v>
+        <v>0.9726453687061278</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9782285933045697</v>
+        <v>0.9782285933045684</v>
       </c>
       <c r="D7">
-        <v>1.000165713470727</v>
+        <v>1.000165713470726</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9581004971924414</v>
+        <v>0.9581004971924398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035753295229328</v>
+        <v>1.035753295229327</v>
       </c>
       <c r="J7">
-        <v>0.9981997983977619</v>
+        <v>0.9981997983977603</v>
       </c>
       <c r="K7">
-        <v>1.010259138095285</v>
+        <v>1.010259138095284</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9687291944932297</v>
+        <v>0.968729194493228</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9636858287691213</v>
+        <v>0.9636858287691212</v>
       </c>
       <c r="D8">
-        <v>0.9893549590067888</v>
+        <v>0.9893549590067886</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9394061927145406</v>
+        <v>0.9394061927145405</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9514747077084038</v>
+        <v>0.9514747077084035</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9346829272756142</v>
+        <v>0.9346829272756155</v>
       </c>
       <c r="D9">
-        <v>0.9678277875174672</v>
+        <v>0.9678277875174686</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9019298854093021</v>
+        <v>0.9019298854093034</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021185768526947</v>
       </c>
       <c r="J9">
-        <v>0.9627735338699955</v>
+        <v>0.9627735338699969</v>
       </c>
       <c r="K9">
-        <v>0.9814653336908654</v>
+        <v>0.981465333690867</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9168433715572045</v>
+        <v>0.9168433715572057</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9121755709397337</v>
+        <v>0.9121755709397374</v>
       </c>
       <c r="D10">
-        <v>0.9511743160330118</v>
+        <v>0.9511743160330149</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.8725803791434252</v>
+        <v>0.8725803791434297</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013496149490291</v>
+        <v>1.013496149490293</v>
       </c>
       <c r="J10">
-        <v>0.9443658205642758</v>
+        <v>0.9443658205642792</v>
       </c>
       <c r="K10">
-        <v>0.9664848785836901</v>
+        <v>0.9664848785836931</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.889706651957734</v>
+        <v>0.8897066519577383</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9013726555624049</v>
+        <v>0.9013726555624012</v>
       </c>
       <c r="D11">
-        <v>0.9432029169575246</v>
+        <v>0.9432029169575219</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8583827967780674</v>
+        <v>0.8583827967780635</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00978080608686</v>
+        <v>1.009780806086859</v>
       </c>
       <c r="J11">
-        <v>0.9355134751115488</v>
+        <v>0.9355134751115456</v>
       </c>
       <c r="K11">
-        <v>0.9592817779200755</v>
+        <v>0.9592817779200727</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.8765809278269245</v>
+        <v>0.8765809278269207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8971627037702026</v>
+        <v>0.8971627037702005</v>
       </c>
       <c r="D12">
-        <v>0.9401007738691899</v>
+        <v>0.940100773869188</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8528272166242532</v>
+        <v>0.8528272166242503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008329549922003</v>
+        <v>1.008329549922002</v>
       </c>
       <c r="J12">
-        <v>0.9320610321749399</v>
+        <v>0.9320610321749377</v>
       </c>
       <c r="K12">
-        <v>0.9564731440358966</v>
+        <v>0.9564731440358947</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.8714456623065417</v>
+        <v>0.8714456623065389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980754634634691</v>
+        <v>0.8980754634634707</v>
       </c>
       <c r="D13">
-        <v>0.9407731334828282</v>
+        <v>0.9407731334828295</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367009</v>
+        <v>0.9318723593367008</v>
       </c>
       <c r="F13">
-        <v>0.854032866488185</v>
+        <v>0.8540328664881868</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008644341983771</v>
+        <v>1.008644341983772</v>
       </c>
       <c r="J13">
-        <v>0.932809676477774</v>
+        <v>0.9328096764777754</v>
       </c>
       <c r="K13">
-        <v>0.957082146221337</v>
+        <v>0.9570821462213382</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964247</v>
+        <v>0.9483836088964245</v>
       </c>
       <c r="M13">
-        <v>0.8725600432433807</v>
+        <v>0.8725600432433822</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9010289601892055</v>
+        <v>0.9010289601892085</v>
       </c>
       <c r="D14">
-        <v>0.9429495671517389</v>
+        <v>0.9429495671517415</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194315</v>
       </c>
       <c r="F14">
-        <v>0.8579297452704197</v>
+        <v>0.8579297452704235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009662392757112</v>
+        <v>1.009662392757113</v>
       </c>
       <c r="J14">
-        <v>0.935231675357424</v>
+        <v>0.9352316753574268</v>
       </c>
       <c r="K14">
-        <v>0.9590525129567972</v>
+        <v>0.9590525129567998</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764518</v>
+        <v>0.9490745509764517</v>
       </c>
       <c r="M14">
-        <v>0.8761621297980471</v>
+        <v>0.876162129798051</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9028211642875827</v>
+        <v>0.9028211642875836</v>
       </c>
       <c r="D15">
-        <v>0.944270844865234</v>
+        <v>0.9442708448652354</v>
       </c>
       <c r="E15">
         <v>0.9332781050717471</v>
       </c>
       <c r="F15">
-        <v>0.8602912350156494</v>
+        <v>0.8602912350156503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010279727585316</v>
       </c>
       <c r="J15">
-        <v>0.9367010175419836</v>
+        <v>0.9367010175419846</v>
       </c>
       <c r="K15">
-        <v>0.9602479585580798</v>
+        <v>0.9602479585580809</v>
       </c>
       <c r="L15">
         <v>0.9494987508767191</v>
       </c>
       <c r="M15">
-        <v>0.8783451167924523</v>
+        <v>0.8783451167924531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.912867286802913</v>
+        <v>0.9128672868029124</v>
       </c>
       <c r="D16">
-        <v>0.9516852495320711</v>
+        <v>0.9516852495320708</v>
       </c>
       <c r="E16">
         <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.8734867803101412</v>
+        <v>0.87348678031014</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.013733574561372</v>
       </c>
       <c r="J16">
-        <v>0.9449322910246551</v>
+        <v>0.9449322910246549</v>
       </c>
       <c r="K16">
-        <v>0.9669458664933935</v>
+        <v>0.9669458664933931</v>
       </c>
       <c r="L16">
         <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.8905447018136212</v>
+        <v>0.8905447018136204</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -994,13 +994,13 @@
         <v>0.9188629285946266</v>
       </c>
       <c r="D17">
-        <v>0.9561163826925838</v>
+        <v>0.9561163826925836</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855668</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.8813307356679945</v>
+        <v>0.8813307356679942</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>0.9498404606953356</v>
       </c>
       <c r="K17">
-        <v>0.9709402375071544</v>
+        <v>0.9709402375071543</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.8977973546023236</v>
+        <v>0.8977973546023233</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9222612684932375</v>
+        <v>0.922261268493234</v>
       </c>
       <c r="D18">
-        <v>0.9586298527949976</v>
+        <v>0.9586298527949948</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.8857671518528875</v>
+        <v>0.885767151852884</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016951578265242</v>
+        <v>1.016951578265241</v>
       </c>
       <c r="J18">
-        <v>0.9526208730408039</v>
+        <v>0.9526208730408002</v>
       </c>
       <c r="K18">
-        <v>0.9732030589061026</v>
+        <v>0.9732030589060996</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865728</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9018994179643151</v>
+        <v>0.9018994179643114</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9234042049269957</v>
+        <v>0.9234042049269948</v>
       </c>
       <c r="D19">
-        <v>0.9594754837552149</v>
+        <v>0.9594754837552136</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680088</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.8872577344175022</v>
+        <v>0.8872577344175012</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.017342232450048</v>
       </c>
       <c r="J19">
-        <v>0.9535557254517368</v>
+        <v>0.9535557254517359</v>
       </c>
       <c r="K19">
-        <v>0.9739638831594457</v>
+        <v>0.9739638831594446</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812709</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9032776601289505</v>
+        <v>0.9032776601289495</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9182301077014765</v>
+        <v>0.918230107701476</v>
       </c>
       <c r="D20">
-        <v>0.9556484859793267</v>
+        <v>0.9556484859793265</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.8805038644326354</v>
+        <v>0.8805038644326351</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.015572177010589</v>
       </c>
       <c r="J20">
-        <v>0.949322580991233</v>
+        <v>0.9493225809912327</v>
       </c>
       <c r="K20">
-        <v>0.9705187669358945</v>
+        <v>0.9705187669358942</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.8970328035697189</v>
+        <v>0.8970328035697188</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9001650588628282</v>
+        <v>0.9001650588628261</v>
       </c>
       <c r="D21">
-        <v>0.9423128290797733</v>
+        <v>0.9423128290797718</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148881</v>
+        <v>0.9324872132148885</v>
       </c>
       <c r="F21">
-        <v>0.8567905827070706</v>
+        <v>0.856790582707068</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009364700436665</v>
+        <v>1.009364700436664</v>
       </c>
       <c r="J21">
-        <v>0.9345233104141486</v>
+        <v>0.9345233104141466</v>
       </c>
       <c r="K21">
-        <v>0.9584762169162863</v>
+        <v>0.9584762169162848</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981056</v>
+        <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>0.8751091119193323</v>
+        <v>0.8751091119193299</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8876336063259167</v>
+        <v>0.8876336063259175</v>
       </c>
       <c r="D22">
-        <v>0.9330888415572334</v>
+        <v>0.9330888415572341</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8402003920061744</v>
+        <v>0.8402003920061755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005038816075758</v>
+        <v>1.005038816075759</v>
       </c>
       <c r="J22">
-        <v>0.9242414614049428</v>
+        <v>0.9242414614049433</v>
       </c>
       <c r="K22">
-        <v>0.9501135237131871</v>
+        <v>0.9501135237131878</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8597768655110248</v>
+        <v>0.8597768655110259</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8944052400580809</v>
+        <v>0.8944052400580808</v>
       </c>
       <c r="D23">
-        <v>0.9380703040705441</v>
+        <v>0.9380703040705443</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8491809685357843</v>
+        <v>0.8491809685357841</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.007378093063733</v>
       </c>
       <c r="J23">
-        <v>0.9297989684031374</v>
+        <v>0.9297989684031371</v>
       </c>
       <c r="K23">
-        <v>0.9546331461154888</v>
+        <v>0.954633146115489</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
         <v>0.8680756397061667</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9185163548762729</v>
+        <v>0.9185163548762724</v>
       </c>
       <c r="D24">
-        <v>0.9558601262826885</v>
+        <v>0.9558601262826879</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011711</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.8808779168756906</v>
+        <v>0.8808779168756897</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.015670204041917</v>
       </c>
       <c r="J24">
-        <v>0.9495568410513344</v>
+        <v>0.9495568410513338</v>
       </c>
       <c r="K24">
-        <v>0.9707094166806662</v>
+        <v>0.9707094166806656</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442454</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.8973786639683878</v>
+        <v>0.8973786639683871</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.942659529972686</v>
+        <v>0.9426595299726857</v>
       </c>
       <c r="D25">
-        <v>0.9737421355709174</v>
+        <v>0.973742135570917</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9122694217572312</v>
+        <v>0.9122694217572311</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.023889826963573</v>
       </c>
       <c r="J25">
-        <v>0.969283688960264</v>
+        <v>0.9692836889602636</v>
       </c>
       <c r="K25">
-        <v>0.9867622232297082</v>
+        <v>0.986762223229708</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.926401630770794</v>
+        <v>0.9264016307707937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597384832279909</v>
+        <v>0.9631288577199264</v>
       </c>
       <c r="D2">
-        <v>0.9864219036075484</v>
+        <v>0.9889650088659996</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9343228540038832</v>
+        <v>0.9379152084672305</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029631267786887</v>
+        <v>1.030920756977718</v>
       </c>
       <c r="J2">
-        <v>0.9831939149080839</v>
+        <v>0.986471226112339</v>
       </c>
       <c r="K2">
-        <v>0.9980737010843655</v>
+        <v>1.000580249934072</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9467799105706995</v>
+        <v>0.9503130488876766</v>
+      </c>
+      <c r="N2">
+        <v>0.9878721284032496</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9711704268988253</v>
+        <v>0.9745087215618604</v>
       </c>
       <c r="D3">
-        <v>0.9949181035292922</v>
+        <v>0.9974264121016657</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9490333572054618</v>
+        <v>0.9525459711039281</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033429656067699</v>
+        <v>1.03470322721095</v>
       </c>
       <c r="J3">
-        <v>0.9924791074670607</v>
+        <v>0.9957192790012179</v>
       </c>
       <c r="K3">
-        <v>1.005616423806955</v>
+        <v>1.008092328723009</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9603627554958142</v>
+        <v>0.9638243358767693</v>
+      </c>
+      <c r="N3">
+        <v>0.9971333145879974</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9781899438924996</v>
+        <v>0.9814994413680251</v>
       </c>
       <c r="D4">
-        <v>1.000136976106139</v>
+        <v>1.002626160926061</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9580508728849323</v>
+        <v>0.961519207419148</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035740620536893</v>
+        <v>1.037005565772719</v>
       </c>
       <c r="J4">
-        <v>0.9981685000416111</v>
+        <v>1.001388532210777</v>
       </c>
       <c r="K4">
-        <v>1.010233748228061</v>
+        <v>1.012692993499647</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9686834186467799</v>
+        <v>0.9721053744609983</v>
+      </c>
+      <c r="N4">
+        <v>1.002810618787386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9810591380547591</v>
+        <v>0.9843575216132864</v>
       </c>
       <c r="D5">
-        <v>1.002270371377753</v>
+        <v>1.004752204377268</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9617341216150964</v>
+        <v>0.9651853130942911</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036679993692887</v>
+        <v>1.037941652736233</v>
       </c>
       <c r="J5">
-        <v>1.00049112384304</v>
+        <v>1.003703475824105</v>
       </c>
       <c r="K5">
-        <v>1.012117557595112</v>
+        <v>1.014570441171948</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9720805885140253</v>
+        <v>0.9754872306751809</v>
+      </c>
+      <c r="N5">
+        <v>1.005128849886173</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9815363159647281</v>
+        <v>0.9848328871501147</v>
       </c>
       <c r="D6">
-        <v>1.002625182913635</v>
+        <v>1.005105818761347</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9623465576328127</v>
+        <v>0.9657949501184887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03683591130735</v>
+        <v>1.038097037027117</v>
       </c>
       <c r="J6">
-        <v>1.00087723059587</v>
+        <v>1.004088335552166</v>
       </c>
       <c r="K6">
-        <v>1.01243064618888</v>
+        <v>1.014882496366537</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9726453687061278</v>
+        <v>0.9760495121961084</v>
+      </c>
+      <c r="N6">
+        <v>1.005514256159191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9782285933045684</v>
+        <v>0.9815379385841179</v>
       </c>
       <c r="D7">
-        <v>1.000165713470726</v>
+        <v>1.002654797495506</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9581004971924398</v>
+        <v>0.9615685971971755</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035753295229327</v>
+        <v>1.037018195288059</v>
       </c>
       <c r="J7">
-        <v>0.9981997983977603</v>
+        <v>1.001419725020855</v>
       </c>
       <c r="K7">
-        <v>1.010259138095284</v>
+        <v>1.012718295972902</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.968729194493228</v>
+        <v>0.9721509406940496</v>
+      </c>
+      <c r="N7">
+        <v>1.002841855894832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9636858287691212</v>
+        <v>0.967057463878286</v>
       </c>
       <c r="D8">
-        <v>0.9893549590067886</v>
+        <v>0.991885517283332</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9394061927145405</v>
+        <v>0.9429698912447172</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030947325098495</v>
+        <v>1.032231046587963</v>
       </c>
       <c r="J8">
-        <v>0.986402559697515</v>
+        <v>0.9896664138523428</v>
       </c>
       <c r="K8">
-        <v>1.000681081355147</v>
+        <v>1.003176537984159</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9514747077084035</v>
+        <v>0.9549821056394829</v>
+      </c>
+      <c r="N8">
+        <v>0.9910718536763374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9346829272756155</v>
+        <v>0.9382132543162143</v>
       </c>
       <c r="D9">
-        <v>0.9678277875174686</v>
+        <v>0.970465223756671</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9019298854093034</v>
+        <v>0.9057358587720181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021185768526947</v>
+        <v>1.022519298280735</v>
       </c>
       <c r="J9">
-        <v>0.9627735338699969</v>
+        <v>0.9661537871776499</v>
       </c>
       <c r="K9">
-        <v>0.981465333690867</v>
+        <v>0.9840563750989277</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9168433715572057</v>
+        <v>0.9205689677903764</v>
+      </c>
+      <c r="N9">
+        <v>0.9675258363748306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9121755709397374</v>
+        <v>0.9158692350852167</v>
       </c>
       <c r="D10">
-        <v>0.9511743160330149</v>
+        <v>0.9539226584198154</v>
       </c>
       <c r="E10">
         <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.8725803791434297</v>
+        <v>0.8766364599144822</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013496149490293</v>
+        <v>1.014882363610964</v>
       </c>
       <c r="J10">
-        <v>0.9443658205642792</v>
+        <v>0.9478698597861337</v>
       </c>
       <c r="K10">
-        <v>0.9664848785836931</v>
+        <v>0.9691768604616641</v>
       </c>
       <c r="L10">
         <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.8897066519577383</v>
+        <v>0.8936582401255933</v>
+      </c>
+      <c r="N10">
+        <v>0.9492159437092222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9013726555624012</v>
+        <v>0.905160816191676</v>
       </c>
       <c r="D11">
-        <v>0.9432029169575219</v>
+        <v>0.9460156506429365</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8583827967780635</v>
+        <v>0.8625844503741705</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009780806086859</v>
+        <v>1.011197867246445</v>
       </c>
       <c r="J11">
-        <v>0.9355134751115456</v>
+        <v>0.9390903177938393</v>
       </c>
       <c r="K11">
-        <v>0.9592817779200727</v>
+        <v>0.962032871534188</v>
       </c>
       <c r="L11">
         <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.8765809278269207</v>
+        <v>0.8806641798763126</v>
+      </c>
+      <c r="N11">
+        <v>0.9404239337602717</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8971627037702005</v>
+        <v>0.9009910470031675</v>
       </c>
       <c r="D12">
-        <v>0.940100773869188</v>
+        <v>0.9429409251681197</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8528272166242503</v>
+        <v>0.8570910031195602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008329549922002</v>
+        <v>1.009759787012907</v>
       </c>
       <c r="J12">
-        <v>0.9320610321749377</v>
+        <v>0.935669039281946</v>
       </c>
       <c r="K12">
-        <v>0.9564731440358947</v>
+        <v>0.9592494931926858</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.8714456623065389</v>
+        <v>0.8755851215952674</v>
+      </c>
+      <c r="N12">
+        <v>0.9369977966404651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980754634634707</v>
+        <v>0.9018949234588554</v>
       </c>
       <c r="D13">
-        <v>0.9407731334828295</v>
+        <v>0.9436072218444405</v>
       </c>
       <c r="E13">
         <v>0.9318723593367008</v>
       </c>
       <c r="F13">
-        <v>0.8540328664881868</v>
+        <v>0.858282904814997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008644341983772</v>
+        <v>1.010071663560528</v>
       </c>
       <c r="J13">
-        <v>0.9328096764777754</v>
+        <v>0.9364107843326367</v>
       </c>
       <c r="K13">
-        <v>0.9570821462213382</v>
+        <v>0.9598529065510266</v>
       </c>
       <c r="L13">
         <v>0.9483836088964245</v>
       </c>
       <c r="M13">
-        <v>0.8725600432433822</v>
+        <v>0.8766870652339954</v>
+      </c>
+      <c r="N13">
+        <v>0.9377405950542075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9010289601892085</v>
+        <v>0.9048203267856032</v>
       </c>
       <c r="D14">
-        <v>0.9429495671517415</v>
+        <v>0.945764487617674</v>
       </c>
       <c r="E14">
         <v>0.9327433047194315</v>
       </c>
       <c r="F14">
-        <v>0.8579297452704235</v>
+        <v>0.8621363509119414</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009662392757113</v>
+        <v>1.011080503982913</v>
       </c>
       <c r="J14">
-        <v>0.9352316753574268</v>
+        <v>0.9388110002851731</v>
       </c>
       <c r="K14">
-        <v>0.9590525129567998</v>
+        <v>0.9618056191692148</v>
       </c>
       <c r="L14">
         <v>0.9490745509764517</v>
       </c>
       <c r="M14">
-        <v>0.876162129798051</v>
+        <v>0.8802498614620264</v>
+      </c>
+      <c r="N14">
+        <v>0.9401442195887048</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9028211642875836</v>
+        <v>0.9065959547758959</v>
       </c>
       <c r="D15">
-        <v>0.9442708448652354</v>
+        <v>0.9470744602509142</v>
       </c>
       <c r="E15">
         <v>0.9332781050717471</v>
       </c>
       <c r="F15">
-        <v>0.8602912350156503</v>
+        <v>0.8644722462656896</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010279727585316</v>
+        <v>1.01169241186037</v>
       </c>
       <c r="J15">
-        <v>0.9367010175419846</v>
+        <v>0.9402675164476816</v>
       </c>
       <c r="K15">
-        <v>0.9602479585580809</v>
+        <v>0.9629906635528344</v>
       </c>
       <c r="L15">
         <v>0.9494987508767191</v>
       </c>
       <c r="M15">
-        <v>0.8783451167924531</v>
+        <v>0.8824096961624934</v>
+      </c>
+      <c r="N15">
+        <v>0.9416028041712285</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9128672868029124</v>
+        <v>0.9165552915759845</v>
       </c>
       <c r="D16">
-        <v>0.9516852495320708</v>
+        <v>0.954429739914292</v>
       </c>
       <c r="E16">
         <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.87348678031014</v>
+        <v>0.8775341656472491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013733574561372</v>
+        <v>1.015117948321245</v>
       </c>
       <c r="J16">
-        <v>0.9449322910246549</v>
+        <v>0.9484319940458555</v>
       </c>
       <c r="K16">
-        <v>0.9669458664933931</v>
+        <v>0.9696343222746356</v>
       </c>
       <c r="L16">
         <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.8905447018136204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8944884271852661</v>
+      </c>
+      <c r="N16">
+        <v>0.949778876264071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9188629285946266</v>
+        <v>0.9225036970612257</v>
       </c>
       <c r="D17">
-        <v>0.9561163826925836</v>
+        <v>0.9588287445699885</v>
       </c>
       <c r="E17">
         <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.8813307356679942</v>
+        <v>0.8853056365718864</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015788874691071</v>
+        <v>1.017157924069182</v>
       </c>
       <c r="J17">
-        <v>0.9498404606953356</v>
+        <v>0.9533040902905711</v>
       </c>
       <c r="K17">
-        <v>0.9709402375071543</v>
+        <v>0.9735993335507166</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.8977973546023233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.901675548323444</v>
+      </c>
+      <c r="N17">
+        <v>0.9546578914442913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.922261268493234</v>
+        <v>0.9258766468403211</v>
       </c>
       <c r="D18">
-        <v>0.9586298527949948</v>
+        <v>0.9613249633794839</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.885767151852884</v>
+        <v>0.8897031554351228</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016951578265241</v>
+        <v>1.018312419910952</v>
       </c>
       <c r="J18">
-        <v>0.9526208730408002</v>
+        <v>0.9560652067136308</v>
       </c>
       <c r="K18">
-        <v>0.9732030589060996</v>
+        <v>0.9758464304309974</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9018994179643114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9057424562005864</v>
+      </c>
+      <c r="N18">
+        <v>0.9574229289693762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9234042049269948</v>
+        <v>0.9270112587004024</v>
       </c>
       <c r="D19">
-        <v>0.9594754837552136</v>
+        <v>0.9621649412683844</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.8872577344175012</v>
+        <v>0.8911809938209684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017342232450048</v>
+        <v>1.018700387963675</v>
       </c>
       <c r="J19">
-        <v>0.9535557254517359</v>
+        <v>0.956993748024183</v>
       </c>
       <c r="K19">
-        <v>0.9739638831594446</v>
+        <v>0.9766021085224563</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9032776601289495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.907109182126817</v>
+      </c>
+      <c r="N19">
+        <v>0.9583527889150947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.918230107701476</v>
+        <v>0.9218757121027719</v>
       </c>
       <c r="D20">
-        <v>0.9556484859793265</v>
+        <v>0.9583641351429817</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.8805038644326351</v>
+        <v>0.8844861787956599</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015572177010589</v>
+        <v>1.016942792115889</v>
       </c>
       <c r="J20">
-        <v>0.9493225809912327</v>
+        <v>0.9527898935221449</v>
       </c>
       <c r="K20">
-        <v>0.9705187669358942</v>
+        <v>0.9731808626440802</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.8970328035697188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9009176985334871</v>
+      </c>
+      <c r="N20">
+        <v>0.9541429644574745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9001650588628261</v>
+        <v>0.9039645414723936</v>
       </c>
       <c r="D21">
-        <v>0.9423128290797718</v>
+        <v>0.9451332860354454</v>
       </c>
       <c r="E21">
         <v>0.9324872132148885</v>
       </c>
       <c r="F21">
-        <v>0.856790582707068</v>
+        <v>0.8610097286370818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009364700436664</v>
+        <v>1.010785470874245</v>
       </c>
       <c r="J21">
-        <v>0.9345233104141466</v>
+        <v>0.9381089225549476</v>
       </c>
       <c r="K21">
-        <v>0.9584762169162848</v>
+        <v>0.9612344200017994</v>
       </c>
       <c r="L21">
         <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>0.8751091119193299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8792081876484161</v>
+      </c>
+      <c r="N21">
+        <v>0.939441144827573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8876336063259175</v>
+        <v>0.8915607717283266</v>
       </c>
       <c r="D22">
-        <v>0.9330888415572341</v>
+        <v>0.9359964981711695</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8402003920061755</v>
+        <v>0.8446176061835945</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005038816075759</v>
+        <v>1.006501578810356</v>
       </c>
       <c r="J22">
-        <v>0.9242414614049433</v>
+        <v>0.92792655849463</v>
       </c>
       <c r="K22">
-        <v>0.9501135237131878</v>
+        <v>0.952952238013503</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8597768655110259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8640551265717262</v>
+      </c>
+      <c r="N22">
+        <v>0.9292443206423563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8944052400580808</v>
+        <v>0.8982610164439784</v>
       </c>
       <c r="D23">
-        <v>0.9380703040705443</v>
+        <v>0.9409291845853556</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8491809685357841</v>
+        <v>0.853487256913714</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007378093063733</v>
+        <v>1.008817342916108</v>
       </c>
       <c r="J23">
-        <v>0.9297989684031371</v>
+        <v>0.9334283148848728</v>
       </c>
       <c r="K23">
-        <v>0.954633146115489</v>
+        <v>0.9574267735209602</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.8680756397061667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8722535490510563</v>
+      </c>
+      <c r="N23">
+        <v>0.9347538901577335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9185163548762724</v>
+        <v>0.922159767547627</v>
       </c>
       <c r="D24">
-        <v>0.9558601262826879</v>
+        <v>0.9585742855328622</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.8808779168756897</v>
+        <v>0.8848568711309414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015670204041917</v>
+        <v>1.017040109438838</v>
       </c>
       <c r="J24">
-        <v>0.9495568410513338</v>
+        <v>0.9530224841127164</v>
       </c>
       <c r="K24">
-        <v>0.9707094166806656</v>
+        <v>0.9733701527079518</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.8973786639683871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9012605215975154</v>
+      </c>
+      <c r="N24">
+        <v>0.9543758853533632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9426595299726857</v>
+        <v>0.946141068153317</v>
       </c>
       <c r="D25">
-        <v>0.973742135570917</v>
+        <v>0.9763465872116077</v>
       </c>
       <c r="E25">
         <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9122694217572311</v>
+        <v>0.9160009312322023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.023889826963573</v>
+        <v>1.025207847915098</v>
       </c>
       <c r="J25">
-        <v>0.9692836889602636</v>
+        <v>0.972627641824124</v>
       </c>
       <c r="K25">
-        <v>0.986762223229708</v>
+        <v>0.9893235363675067</v>
       </c>
       <c r="L25">
         <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.9264016307707937</v>
+        <v>0.9300600509184684</v>
+      </c>
+      <c r="N25">
+        <v>0.9740088846374639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9820298753682234</v>
+      </c>
+      <c r="D2">
+        <v>1.004100857474798</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9579048898592322</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.038597898209533</v>
+      </c>
+      <c r="J2">
+        <v>1.004761684122151</v>
+      </c>
+      <c r="K2">
+        <v>1.015503354966248</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.9699835896631809</v>
+      </c>
+      <c r="N2">
+        <v>1.005773901735699</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9865424277478259</v>
+      </c>
+      <c r="D3">
+        <v>1.007440573550477</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9651944462788118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.03978886619463</v>
+      </c>
+      <c r="J3">
+        <v>1.007406806221609</v>
+      </c>
+      <c r="K3">
+        <v>1.017979127904985</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>0.9762929315039198</v>
+      </c>
+      <c r="N3">
+        <v>1.00664368387925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9893903383582254</v>
+      </c>
+      <c r="D4">
+        <v>1.00954636194021</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.9697830624336005</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.0405227512702</v>
+      </c>
+      <c r="J4">
+        <v>1.009069389971996</v>
+      </c>
+      <c r="K4">
+        <v>1.019530920146214</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>0.980260399404541</v>
+      </c>
+      <c r="N4">
+        <v>1.007190404520458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9905710467969806</v>
+      </c>
+      <c r="D5">
+        <v>1.010418862447377</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>0.9716830392836519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.040822687377177</v>
+      </c>
+      <c r="J5">
+        <v>1.009757037268774</v>
+      </c>
+      <c r="K5">
+        <v>1.020171658439157</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>0.9819021536605868</v>
+      </c>
+      <c r="N5">
+        <v>1.007416533118091</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9907683413915241</v>
+      </c>
+      <c r="D6">
+        <v>1.010564622633884</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
+      <c r="F6">
+        <v>0.972000393365346</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.040872550100396</v>
+      </c>
+      <c r="J6">
+        <v>1.009871845277448</v>
+      </c>
+      <c r="K6">
+        <v>1.020278569562136</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>0.9821763151726254</v>
+      </c>
+      <c r="N6">
+        <v>1.007454287234908</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9894061792085163</v>
+      </c>
+      <c r="D7">
+        <v>1.009558069949583</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691357</v>
+      </c>
+      <c r="F7">
+        <v>0.9698085622246447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.040526792514161</v>
+      </c>
+      <c r="J7">
+        <v>1.009078622220445</v>
+      </c>
+      <c r="K7">
+        <v>1.019539526953255</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>0.980282437678183</v>
+      </c>
+      <c r="N7">
+        <v>1.007193440474126</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9835702522694283</v>
+      </c>
+      <c r="D8">
+        <v>1.005241246405187</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
+      </c>
+      <c r="F8">
+        <v>0.9603959916302904</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.039008131571417</v>
+      </c>
+      <c r="J8">
+        <v>1.005666023782955</v>
+      </c>
+      <c r="K8">
+        <v>1.016350686663662</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.972140561775121</v>
+      </c>
+      <c r="N8">
+        <v>1.006071265921291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9727017001784658</v>
+      </c>
+      <c r="D9">
+        <v>0.9971895882999738</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
+      </c>
+      <c r="F9">
+        <v>0.9427479690498295</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.036040365780274</v>
+      </c>
+      <c r="J9">
+        <v>0.999256678351892</v>
+      </c>
+      <c r="K9">
+        <v>1.010328427637398</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
+      </c>
+      <c r="M9">
+        <v>0.956843644492385</v>
+      </c>
+      <c r="N9">
+        <v>1.003963891976463</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9650117319532937</v>
+      </c>
+      <c r="D10">
+        <v>0.9914892902686756</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
+      </c>
+      <c r="F10">
+        <v>0.9301440275595098</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.033850017167456</v>
+      </c>
+      <c r="J10">
+        <v>0.994685750325536</v>
+      </c>
+      <c r="K10">
+        <v>1.006013927437123</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
+      </c>
+      <c r="M10">
+        <v>0.9459005138610016</v>
+      </c>
+      <c r="N10">
+        <v>1.002461220763892</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9615636806752585</v>
+      </c>
+      <c r="D11">
+        <v>0.9889337143573846</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
+      </c>
+      <c r="F11">
+        <v>0.9244551972250111</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.032847345127916</v>
+      </c>
+      <c r="J11">
+        <v>0.992627731889082</v>
+      </c>
+      <c r="K11">
+        <v>1.004067386274867</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>0.9409577322478205</v>
+      </c>
+      <c r="N11">
+        <v>1.001784731852262</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9602639335153602</v>
+      </c>
+      <c r="D12">
+        <v>0.9879705409684738</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.9223042191500654</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.032466378631594</v>
+      </c>
+      <c r="J12">
+        <v>0.9918506841500756</v>
+      </c>
+      <c r="K12">
+        <v>1.003331893170039</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
+      </c>
+      <c r="M12">
+        <v>0.9390883799534754</v>
+      </c>
+      <c r="N12">
+        <v>1.001529322329529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9605436138939695</v>
+      </c>
+      <c r="D13">
+        <v>0.9881777885349605</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.9227673808500632</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.032548489763475</v>
+      </c>
+      <c r="J13">
+        <v>0.9920179473725972</v>
+      </c>
+      <c r="K13">
+        <v>1.003490234728335</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
+      </c>
+      <c r="M13">
+        <v>0.9394909196948062</v>
+      </c>
+      <c r="N13">
+        <v>1.001584299831209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9614566380132556</v>
+      </c>
+      <c r="D14">
+        <v>0.9888543870029189</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>0.9242781893210485</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.032816030659686</v>
+      </c>
+      <c r="J14">
+        <v>0.9925637628397352</v>
+      </c>
+      <c r="K14">
+        <v>1.004006848644603</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>0.9408039086914126</v>
+      </c>
+      <c r="N14">
+        <v>1.001763705452319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9620166276399061</v>
+      </c>
+      <c r="D15">
+        <v>0.9892693919468014</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.9332781050717475</v>
+      </c>
+      <c r="F15">
+        <v>0.9252039262234704</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.032979729137311</v>
+      </c>
+      <c r="J15">
+        <v>0.9928983625758375</v>
+      </c>
+      <c r="K15">
+        <v>1.004323478398623</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.941608375145188</v>
+      </c>
+      <c r="N15">
+        <v>1.00187368773795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9652379748865705</v>
+      </c>
+      <c r="D16">
+        <v>0.9916569893068089</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
+      </c>
+      <c r="F16">
+        <v>0.930516444092006</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.033915386860194</v>
+      </c>
+      <c r="J16">
+        <v>0.9948206103581856</v>
+      </c>
+      <c r="K16">
+        <v>1.006141405066506</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.9462240230410337</v>
+      </c>
+      <c r="N16">
+        <v>1.002505552148958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9672261578724448</v>
+      </c>
+      <c r="D17">
+        <v>0.9931307495378124</v>
+      </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
+      <c r="F17">
+        <v>0.9337848281888268</v>
+      </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.034487522497999</v>
+      </c>
+      <c r="J17">
+        <v>0.996004774081119</v>
+      </c>
+      <c r="K17">
+        <v>1.007260303233565</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0.9490627943320596</v>
+      </c>
+      <c r="N17">
+        <v>1.002894820848738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9683745112575655</v>
+      </c>
+      <c r="D18">
+        <v>0.9939820030478876</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>0.9356691420601512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.034816034200891</v>
+      </c>
+      <c r="J18">
+        <v>0.996687932240555</v>
+      </c>
+      <c r="K18">
+        <v>1.007905429850404</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865727</v>
+      </c>
+      <c r="M18">
+        <v>0.9506990838059736</v>
+      </c>
+      <c r="N18">
+        <v>1.003119401557273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9687641851678148</v>
+      </c>
+      <c r="D19">
+        <v>0.9942708625533303</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
+      </c>
+      <c r="F19">
+        <v>0.9363079889784118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.034927176232466</v>
+      </c>
+      <c r="J19">
+        <v>0.9969196140136852</v>
+      </c>
+      <c r="K19">
+        <v>1.008124147792976</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816592</v>
+      </c>
+      <c r="M19">
+        <v>0.9512537820519567</v>
+      </c>
+      <c r="N19">
+        <v>1.003195565515962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9670140239945666</v>
+      </c>
+      <c r="D20">
+        <v>0.992973499875907</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
+      </c>
+      <c r="F20">
+        <v>0.9334364668345801</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.034426678801211</v>
+      </c>
+      <c r="J20">
+        <v>0.9958785102129134</v>
+      </c>
+      <c r="K20">
+        <v>1.007141037389268</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.9487602582327763</v>
+      </c>
+      <c r="N20">
+        <v>1.002853313546532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9611883097483102</v>
+      </c>
+      <c r="D21">
+        <v>0.9886555366840816</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
+      </c>
+      <c r="F21">
+        <v>0.9238343671772984</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.03273748524623</v>
+      </c>
+      <c r="J21">
+        <v>0.9924033884489217</v>
+      </c>
+      <c r="K21">
+        <v>1.003855068628</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.940418210888055</v>
+      </c>
+      <c r="N21">
+        <v>1.001710991172528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9574148979966449</v>
+      </c>
+      <c r="D22">
+        <v>0.9858596744514572</v>
+      </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
+      <c r="F22">
+        <v>0.9175760506367497</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.031625854924989</v>
+      </c>
+      <c r="J22">
+        <v>0.9901450504545096</v>
+      </c>
+      <c r="K22">
+        <v>1.001716556642594</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572515</v>
+      </c>
+      <c r="M22">
+        <v>0.9349785118592499</v>
+      </c>
+      <c r="N22">
+        <v>1.000968719679473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9594261756047873</v>
+      </c>
+      <c r="D23">
+        <v>0.9873497799399135</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
+      </c>
+      <c r="F23">
+        <v>0.9209158173943223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.032219987414342</v>
+      </c>
+      <c r="J23">
+        <v>0.9913494748329544</v>
+      </c>
+      <c r="K23">
+        <v>1.002857344289537</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285319</v>
+      </c>
+      <c r="M23">
+        <v>0.9378816413071834</v>
+      </c>
+      <c r="N23">
+        <v>1.001364582613247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9671099130552631</v>
+      </c>
+      <c r="D24">
+        <v>0.9930445800237081</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011829</v>
+      </c>
+      <c r="F24">
+        <v>0.9335939443336676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.034454187506688</v>
+      </c>
+      <c r="J24">
+        <v>0.9959355866777995</v>
+      </c>
+      <c r="K24">
+        <v>1.007194951640783</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442545</v>
+      </c>
+      <c r="M24">
+        <v>0.9488970213905404</v>
+      </c>
+      <c r="N24">
+        <v>1.002872076533909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9755857719595268</v>
+      </c>
+      <c r="D25">
+        <v>0.9993271140703485</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>0.9474482685075408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.036843700900955</v>
+      </c>
+      <c r="J25">
+        <v>1.000963663625675</v>
+      </c>
+      <c r="K25">
+        <v>1.01193588471461</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>0.9609211163327857</v>
+      </c>
+      <c r="N25">
+        <v>1.004525109241245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9820298753682234</v>
+        <v>1.012292433325808</v>
       </c>
       <c r="D2">
-        <v>1.004100857474798</v>
+        <v>1.019248255289404</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9579048898592322</v>
+        <v>1.010565194270536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038597898209533</v>
+        <v>1.025142902596617</v>
       </c>
       <c r="J2">
-        <v>1.004761684122151</v>
+        <v>1.017535986546285</v>
       </c>
       <c r="K2">
-        <v>1.015503354966248</v>
+        <v>1.022092065907909</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9699835896631809</v>
+        <v>1.013435001458975</v>
       </c>
       <c r="N2">
-        <v>1.005773901735699</v>
+        <v>1.010006368440002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9865424277478259</v>
+        <v>1.013194884753648</v>
       </c>
       <c r="D3">
-        <v>1.007440573550477</v>
+        <v>1.019912264129034</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9651944462788118</v>
+        <v>1.01211306238351</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03978886619463</v>
+        <v>1.025279182911297</v>
       </c>
       <c r="J3">
-        <v>1.007406806221609</v>
+        <v>1.018072321354631</v>
       </c>
       <c r="K3">
-        <v>1.017979127904985</v>
+        <v>1.022562449592036</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9762929315039198</v>
+        <v>1.014784889401855</v>
       </c>
       <c r="N3">
-        <v>1.00664368387925</v>
+        <v>1.010182616354473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9893903383582254</v>
+        <v>1.013778205724422</v>
       </c>
       <c r="D4">
-        <v>1.00954636194021</v>
+        <v>1.020340805088882</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9697830624336005</v>
+        <v>1.013113891899843</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0405227512702</v>
+        <v>1.025365041537151</v>
       </c>
       <c r="J4">
-        <v>1.009069389971996</v>
+        <v>1.018418157468102</v>
       </c>
       <c r="K4">
-        <v>1.019530920146214</v>
+        <v>1.022865026159951</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.980260399404541</v>
+        <v>1.015657145157266</v>
       </c>
       <c r="N4">
-        <v>1.007190404520458</v>
+        <v>1.010296256525005</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9905710467969806</v>
+        <v>1.014023284359751</v>
       </c>
       <c r="D5">
-        <v>1.010418862447377</v>
+        <v>1.020520695589501</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9716830392836519</v>
+        <v>1.013534468210394</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040822687377177</v>
+        <v>1.025400579705842</v>
       </c>
       <c r="J5">
-        <v>1.009757037268774</v>
+        <v>1.018563257768412</v>
       </c>
       <c r="K5">
-        <v>1.020171658439157</v>
+        <v>1.022991799690596</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9819021536605868</v>
+        <v>1.016023556294678</v>
       </c>
       <c r="N5">
-        <v>1.007416533118091</v>
+        <v>1.010343934143808</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9907683413915241</v>
+        <v>1.01406442538067</v>
       </c>
       <c r="D6">
-        <v>1.010564622633884</v>
+        <v>1.020550884253621</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.972000393365346</v>
+        <v>1.013605074882438</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040872550100396</v>
+        <v>1.025406514056117</v>
       </c>
       <c r="J6">
-        <v>1.009871845277448</v>
+        <v>1.018587603790518</v>
       </c>
       <c r="K6">
-        <v>1.020278569562136</v>
+        <v>1.023013060317406</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9821763151726254</v>
+        <v>1.016085061757761</v>
       </c>
       <c r="N6">
-        <v>1.007454287234908</v>
+        <v>1.010351933755021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9894061792085163</v>
+        <v>1.013781481064326</v>
       </c>
       <c r="D7">
-        <v>1.009558069949583</v>
+        <v>1.020343209848974</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9698085622246447</v>
+        <v>1.013119512331341</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040526792514161</v>
+        <v>1.02536551858835</v>
       </c>
       <c r="J7">
-        <v>1.009078622220445</v>
+        <v>1.018420097441717</v>
       </c>
       <c r="K7">
-        <v>1.019539526953255</v>
+        <v>1.022866721802865</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.980282437678183</v>
+        <v>1.015662042275254</v>
       </c>
       <c r="N7">
-        <v>1.007193440474126</v>
+        <v>1.010296893975678</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9835702522694283</v>
+        <v>1.012597550660024</v>
       </c>
       <c r="D8">
-        <v>1.005241246405187</v>
+        <v>1.019472891106258</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9603959916302904</v>
+        <v>1.011088461264505</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039008131571417</v>
+        <v>1.025189440061672</v>
       </c>
       <c r="J8">
-        <v>1.005666023782955</v>
+        <v>1.017717493663473</v>
       </c>
       <c r="K8">
-        <v>1.016350686663662</v>
+        <v>1.022251405333723</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.972140561775121</v>
+        <v>1.013891456366409</v>
       </c>
       <c r="N8">
-        <v>1.006071265921291</v>
+        <v>1.010066015911707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9727017001784658</v>
+        <v>1.010506511959808</v>
       </c>
       <c r="D9">
-        <v>0.9971895882999738</v>
+        <v>1.017930750186949</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9427479690498295</v>
+        <v>1.007503523466787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036040365780274</v>
+        <v>1.0248613888231</v>
       </c>
       <c r="J9">
-        <v>0.999256678351892</v>
+        <v>1.01647015626887</v>
       </c>
       <c r="K9">
-        <v>1.010328427637398</v>
+        <v>1.02115342122297</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.956843644492385</v>
+        <v>1.010761951395903</v>
       </c>
       <c r="N9">
-        <v>1.003963891976463</v>
+        <v>1.009656083963866</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9650117319532937</v>
+        <v>1.009109236636048</v>
       </c>
       <c r="D10">
-        <v>0.9914892902686756</v>
+        <v>1.016896956600626</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9301440275595098</v>
+        <v>1.005109183150741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033850017167456</v>
+        <v>1.024630759183526</v>
       </c>
       <c r="J10">
-        <v>0.994685750325536</v>
+        <v>1.015632361699444</v>
       </c>
       <c r="K10">
-        <v>1.006013927437123</v>
+        <v>1.020412225950081</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9459005138610016</v>
+        <v>1.008668907597992</v>
       </c>
       <c r="N10">
-        <v>1.002461220763892</v>
+        <v>1.009380712308816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9615636806752585</v>
+        <v>1.008503424292771</v>
       </c>
       <c r="D11">
-        <v>0.9889337143573846</v>
+        <v>1.016447966764536</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9244551972250111</v>
+        <v>1.004071284923187</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032847345127916</v>
+        <v>1.024528069152499</v>
       </c>
       <c r="J11">
-        <v>0.992627731889082</v>
+        <v>1.015268104828417</v>
       </c>
       <c r="K11">
-        <v>1.004067386274867</v>
+        <v>1.02008909925757</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9409577322478205</v>
+        <v>1.007760934668866</v>
       </c>
       <c r="N11">
-        <v>1.001784731852262</v>
+        <v>1.009260978190957</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9602639335153602</v>
+        <v>1.008278280339407</v>
       </c>
       <c r="D12">
-        <v>0.9879705409684738</v>
+        <v>1.016280989434228</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9223042191500654</v>
+        <v>1.003685585824752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032466378631594</v>
+        <v>1.024489501224578</v>
       </c>
       <c r="J12">
-        <v>0.9918506841500756</v>
+        <v>1.015132579900423</v>
       </c>
       <c r="K12">
-        <v>1.003331893170039</v>
+        <v>1.019968747536939</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9390883799534754</v>
+        <v>1.007423415805989</v>
       </c>
       <c r="N12">
-        <v>1.001529322329529</v>
+        <v>1.009216428915346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9605436138939695</v>
+        <v>1.008326579844561</v>
       </c>
       <c r="D13">
-        <v>0.9881777885349605</v>
+        <v>1.016316815796937</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9227673808500632</v>
+        <v>1.003768327739182</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032548489763475</v>
+        <v>1.02449779337121</v>
       </c>
       <c r="J13">
-        <v>0.9920179473725972</v>
+        <v>1.015161660587524</v>
       </c>
       <c r="K13">
-        <v>1.003490234728335</v>
+        <v>1.019994578234822</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9394909196948062</v>
+        <v>1.00749582649101</v>
       </c>
       <c r="N13">
-        <v>1.001584299831209</v>
+        <v>1.009225988268176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9614566380132556</v>
+        <v>1.008484816239976</v>
       </c>
       <c r="D14">
-        <v>0.9888543870029189</v>
+        <v>1.016434168495512</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9242781893210485</v>
+        <v>1.004039406578152</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032816030659686</v>
+        <v>1.024524889769138</v>
       </c>
       <c r="J14">
-        <v>0.9925637628397352</v>
+        <v>1.01525690686159</v>
       </c>
       <c r="K14">
-        <v>1.004006848644603</v>
+        <v>1.020079157639151</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9408039086914126</v>
+        <v>1.007733040539127</v>
       </c>
       <c r="N14">
-        <v>1.001763705452319</v>
+        <v>1.009257297258361</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9620166276399061</v>
+        <v>1.008582295213177</v>
       </c>
       <c r="D15">
-        <v>0.9892693919468014</v>
+        <v>1.016506446541734</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9252039262234704</v>
+        <v>1.004206403461338</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032979729137311</v>
+        <v>1.024541528541282</v>
       </c>
       <c r="J15">
-        <v>0.9928983625758375</v>
+        <v>1.015315561578596</v>
       </c>
       <c r="K15">
-        <v>1.004323478398623</v>
+        <v>1.020131226329853</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.941608375145188</v>
+        <v>1.007879161663091</v>
       </c>
       <c r="N15">
-        <v>1.00187368773795</v>
+        <v>1.009276577859333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9652379748865705</v>
+        <v>1.009149425855894</v>
       </c>
       <c r="D16">
-        <v>0.9916569893068089</v>
+        <v>1.016926726158035</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.930516444092006</v>
+        <v>1.005178040547414</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033915386860194</v>
+        <v>1.024637514868774</v>
       </c>
       <c r="J16">
-        <v>0.9948206103581856</v>
+        <v>1.01565650487936</v>
       </c>
       <c r="K16">
-        <v>1.006141405066506</v>
+        <v>1.020433624792093</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9462240230410337</v>
+        <v>1.008729131032007</v>
       </c>
       <c r="N16">
-        <v>1.002505552148958</v>
+        <v>1.00938864819988</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9672261578724448</v>
+        <v>1.009504961864336</v>
       </c>
       <c r="D17">
-        <v>0.9931307495378124</v>
+        <v>1.017189995186735</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9337848281888268</v>
+        <v>1.005787214363248</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034487522497999</v>
+        <v>1.024696968189819</v>
       </c>
       <c r="J17">
-        <v>0.996004774081119</v>
+        <v>1.015869971398944</v>
       </c>
       <c r="K17">
-        <v>1.007260303233565</v>
+        <v>1.020622726635695</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9490627943320596</v>
+        <v>1.009261842572634</v>
       </c>
       <c r="N17">
-        <v>1.002894820848738</v>
+        <v>1.009458813988622</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9683745112575655</v>
+        <v>1.00971226450854</v>
       </c>
       <c r="D18">
-        <v>0.9939820030478876</v>
+        <v>1.017343425240594</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9356691420601512</v>
+        <v>1.006142426307959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034816034200891</v>
+        <v>1.024731373632327</v>
       </c>
       <c r="J18">
-        <v>0.996687932240555</v>
+        <v>1.015994339430905</v>
       </c>
       <c r="K18">
-        <v>1.007905429850404</v>
+        <v>1.020732815789373</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9506990838059736</v>
+        <v>1.009572403378979</v>
       </c>
       <c r="N18">
-        <v>1.003119401557273</v>
+        <v>1.00949969262148</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9687641851678148</v>
+        <v>1.009782936567418</v>
       </c>
       <c r="D19">
-        <v>0.9942708625533303</v>
+        <v>1.017395718808509</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9363079889784118</v>
+        <v>1.006263526161091</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034927176232466</v>
+        <v>1.024743058740236</v>
       </c>
       <c r="J19">
-        <v>0.9969196140136852</v>
+        <v>1.016036721408711</v>
       </c>
       <c r="K19">
-        <v>1.008124147792976</v>
+        <v>1.02077031759584</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9512537820519567</v>
+        <v>1.009678269498521</v>
       </c>
       <c r="N19">
-        <v>1.003195565515962</v>
+        <v>1.009513623060337</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9670140239945666</v>
+        <v>1.009466824028588</v>
       </c>
       <c r="D20">
-        <v>0.992973499875907</v>
+        <v>1.017161762387903</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9334364668345801</v>
+        <v>1.005721867086884</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034426678801211</v>
+        <v>1.024690617612947</v>
       </c>
       <c r="J20">
-        <v>0.9958785102129134</v>
+        <v>1.015847083294567</v>
       </c>
       <c r="K20">
-        <v>1.007141037389268</v>
+        <v>1.020602459595867</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9487602582327763</v>
+        <v>1.00920470434463</v>
       </c>
       <c r="N20">
-        <v>1.002853313546532</v>
+        <v>1.009451290817254</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9611883097483102</v>
+        <v>1.008438222835778</v>
       </c>
       <c r="D21">
-        <v>0.9886555366840816</v>
+        <v>1.016399616638268</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9238343671772984</v>
+        <v>1.003959585574474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03273748524623</v>
+        <v>1.024516922265303</v>
       </c>
       <c r="J21">
-        <v>0.9924033884489217</v>
+        <v>1.015228865386626</v>
       </c>
       <c r="K21">
-        <v>1.003855068628</v>
+        <v>1.020054260168746</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.940418210888055</v>
+        <v>1.007663194066968</v>
       </c>
       <c r="N21">
-        <v>1.001710991172528</v>
+        <v>1.009248079603984</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9574148979966449</v>
+        <v>1.007790815799254</v>
       </c>
       <c r="D22">
-        <v>0.9858596744514572</v>
+        <v>1.015919253837133</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9175760506367497</v>
+        <v>1.002850538745415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031625854924989</v>
+        <v>1.024405258490922</v>
       </c>
       <c r="J22">
-        <v>0.9901450504545096</v>
+        <v>1.014838872732139</v>
       </c>
       <c r="K22">
-        <v>1.001716556642594</v>
+        <v>1.019707687285607</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9349785118592499</v>
+        <v>1.006692493663826</v>
       </c>
       <c r="N22">
-        <v>1.000968719679473</v>
+        <v>1.009119880434558</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9594261756047873</v>
+        <v>1.008134083637929</v>
       </c>
       <c r="D23">
-        <v>0.9873497799399135</v>
+        <v>1.016174014177117</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9209158173943223</v>
+        <v>1.003438565568697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032219987414342</v>
+        <v>1.024464686150774</v>
       </c>
       <c r="J23">
-        <v>0.9913494748329544</v>
+        <v>1.015045738064096</v>
       </c>
       <c r="K23">
-        <v>1.002857344289537</v>
+        <v>1.019891592030072</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9378816413071834</v>
+        <v>1.007207223799417</v>
       </c>
       <c r="N23">
-        <v>1.001364582613247</v>
+        <v>1.009187882250011</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9671099130552631</v>
+        <v>1.009484057107896</v>
       </c>
       <c r="D24">
-        <v>0.9930445800237081</v>
+        <v>1.017174519976965</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9335939443336676</v>
+        <v>1.00575139504279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034454187506688</v>
+        <v>1.024693488007733</v>
       </c>
       <c r="J24">
-        <v>0.9959355866777995</v>
+        <v>1.015857425886511</v>
       </c>
       <c r="K24">
-        <v>1.007194951640783</v>
+        <v>1.020611618049815</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9488970213905404</v>
+        <v>1.009230523145781</v>
       </c>
       <c r="N24">
-        <v>1.002872076533909</v>
+        <v>1.009454690362447</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9755857719595268</v>
+        <v>1.011047666730574</v>
       </c>
       <c r="D25">
-        <v>0.9993271140703485</v>
+        <v>1.018330437589426</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9474482685075408</v>
+        <v>1.00843106083834</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036843700900955</v>
+        <v>1.024948302193921</v>
       </c>
       <c r="J25">
-        <v>1.000963663625675</v>
+        <v>1.016793721230952</v>
       </c>
       <c r="K25">
-        <v>1.01193588471461</v>
+        <v>1.02143890021102</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9609211163327857</v>
+        <v>1.011572162353822</v>
       </c>
       <c r="N25">
-        <v>1.004525109241245</v>
+        <v>1.009762428250256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012292433325808</v>
+        <v>0.9820298753682233</v>
       </c>
       <c r="D2">
-        <v>1.019248255289404</v>
+        <v>1.004100857474798</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.010565194270536</v>
+        <v>0.9579048898592317</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025142902596617</v>
+        <v>1.038597898209533</v>
       </c>
       <c r="J2">
-        <v>1.017535986546285</v>
+        <v>1.004761684122151</v>
       </c>
       <c r="K2">
-        <v>1.022092065907909</v>
+        <v>1.015503354966248</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.013435001458975</v>
+        <v>0.9699835896631804</v>
       </c>
       <c r="N2">
-        <v>1.010006368440002</v>
+        <v>1.005773901735699</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013194884753648</v>
+        <v>0.9865424277478252</v>
       </c>
       <c r="D3">
-        <v>1.019912264129034</v>
+        <v>1.007440573550477</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.01211306238351</v>
+        <v>0.9651944462788108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025279182911297</v>
+        <v>1.03978886619463</v>
       </c>
       <c r="J3">
-        <v>1.018072321354631</v>
+        <v>1.007406806221608</v>
       </c>
       <c r="K3">
-        <v>1.022562449592036</v>
+        <v>1.017979127904984</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.014784889401855</v>
+        <v>0.9762929315039188</v>
       </c>
       <c r="N3">
-        <v>1.010182616354473</v>
+        <v>1.00664368387925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013778205724422</v>
+        <v>0.989390338358225</v>
       </c>
       <c r="D4">
-        <v>1.020340805088882</v>
+        <v>1.009546361940209</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.013113891899843</v>
+        <v>0.9697830624336002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025365041537151</v>
+        <v>1.040522751270199</v>
       </c>
       <c r="J4">
-        <v>1.018418157468102</v>
+        <v>1.009069389971996</v>
       </c>
       <c r="K4">
-        <v>1.022865026159951</v>
+        <v>1.019530920146214</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.015657145157266</v>
+        <v>0.9802603994045408</v>
       </c>
       <c r="N4">
-        <v>1.010296256525005</v>
+        <v>1.007190404520458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014023284359751</v>
+        <v>0.990571046796981</v>
       </c>
       <c r="D5">
-        <v>1.020520695589501</v>
+        <v>1.010418862447377</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.013534468210394</v>
+        <v>0.9716830392836523</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025400579705842</v>
+        <v>1.040822687377177</v>
       </c>
       <c r="J5">
-        <v>1.018563257768412</v>
+        <v>1.009757037268774</v>
       </c>
       <c r="K5">
-        <v>1.022991799690596</v>
+        <v>1.020171658439157</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.016023556294678</v>
+        <v>0.9819021536605873</v>
       </c>
       <c r="N5">
-        <v>1.010343934143808</v>
+        <v>1.007416533118091</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01406442538067</v>
+        <v>0.9907683413915241</v>
       </c>
       <c r="D6">
-        <v>1.020550884253621</v>
+        <v>1.010564622633884</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.013605074882438</v>
+        <v>0.972000393365346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025406514056117</v>
+        <v>1.040872550100396</v>
       </c>
       <c r="J6">
-        <v>1.018587603790518</v>
+        <v>1.009871845277448</v>
       </c>
       <c r="K6">
-        <v>1.023013060317406</v>
+        <v>1.020278569562136</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.016085061757761</v>
+        <v>0.9821763151726254</v>
       </c>
       <c r="N6">
-        <v>1.010351933755021</v>
+        <v>1.007454287234908</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013781481064326</v>
+        <v>0.9894061792085164</v>
       </c>
       <c r="D7">
-        <v>1.020343209848974</v>
+        <v>1.009558069949583</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.013119512331341</v>
+        <v>0.9698085622246448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02536551858835</v>
+        <v>1.040526792514161</v>
       </c>
       <c r="J7">
-        <v>1.018420097441717</v>
+        <v>1.009078622220445</v>
       </c>
       <c r="K7">
-        <v>1.022866721802865</v>
+        <v>1.019539526953255</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.015662042275254</v>
+        <v>0.9802824376781831</v>
       </c>
       <c r="N7">
-        <v>1.010296893975678</v>
+        <v>1.007193440474126</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012597550660024</v>
+        <v>0.9835702522694287</v>
       </c>
       <c r="D8">
-        <v>1.019472891106258</v>
+        <v>1.005241246405187</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.011088461264505</v>
+        <v>0.9603959916302911</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025189440061672</v>
+        <v>1.039008131571417</v>
       </c>
       <c r="J8">
-        <v>1.017717493663473</v>
+        <v>1.005666023782955</v>
       </c>
       <c r="K8">
-        <v>1.022251405333723</v>
+        <v>1.016350686663663</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.013891456366409</v>
+        <v>0.9721405617751216</v>
       </c>
       <c r="N8">
-        <v>1.010066015911707</v>
+        <v>1.006071265921291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010506511959808</v>
+        <v>0.9727017001784659</v>
       </c>
       <c r="D9">
-        <v>1.017930750186949</v>
+        <v>0.9971895882999738</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.007503523466787</v>
+        <v>0.9427479690498295</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0248613888231</v>
+        <v>1.036040365780274</v>
       </c>
       <c r="J9">
-        <v>1.01647015626887</v>
+        <v>0.9992566783518921</v>
       </c>
       <c r="K9">
-        <v>1.02115342122297</v>
+        <v>1.010328427637398</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.010761951395903</v>
+        <v>0.956843644492385</v>
       </c>
       <c r="N9">
-        <v>1.009656083963866</v>
+        <v>1.003963891976463</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009109236636048</v>
+        <v>0.9650117319532932</v>
       </c>
       <c r="D10">
-        <v>1.016896956600626</v>
+        <v>0.9914892902686753</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.005109183150741</v>
+        <v>0.9301440275595088</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024630759183526</v>
+        <v>1.033850017167456</v>
       </c>
       <c r="J10">
-        <v>1.015632361699444</v>
+        <v>0.9946857503255359</v>
       </c>
       <c r="K10">
-        <v>1.020412225950081</v>
+        <v>1.006013927437123</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.008668907597992</v>
+        <v>0.9459005138610008</v>
       </c>
       <c r="N10">
-        <v>1.009380712308816</v>
+        <v>1.002461220763892</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008503424292771</v>
+        <v>0.9615636806752593</v>
       </c>
       <c r="D11">
-        <v>1.016447966764536</v>
+        <v>0.9889337143573852</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.004071284923187</v>
+        <v>0.9244551972250125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024528069152499</v>
+        <v>1.032847345127916</v>
       </c>
       <c r="J11">
-        <v>1.015268104828417</v>
+        <v>0.9926277318890826</v>
       </c>
       <c r="K11">
-        <v>1.02008909925757</v>
+        <v>1.004067386274867</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.007760934668866</v>
+        <v>0.9409577322478218</v>
       </c>
       <c r="N11">
-        <v>1.009260978190957</v>
+        <v>1.001784731852262</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008278280339407</v>
+        <v>0.96026393351536</v>
       </c>
       <c r="D12">
-        <v>1.016280989434228</v>
+        <v>0.9879705409684737</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.003685585824752</v>
+        <v>0.9223042191500651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024489501224578</v>
+        <v>1.032466378631594</v>
       </c>
       <c r="J12">
-        <v>1.015132579900423</v>
+        <v>0.9918506841500755</v>
       </c>
       <c r="K12">
-        <v>1.019968747536939</v>
+        <v>1.003331893170039</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.007423415805989</v>
+        <v>0.9390883799534752</v>
       </c>
       <c r="N12">
-        <v>1.009216428915346</v>
+        <v>1.001529322329529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008326579844561</v>
+        <v>0.9605436138939696</v>
       </c>
       <c r="D13">
-        <v>1.016316815796937</v>
+        <v>0.9881777885349602</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.003768327739182</v>
+        <v>0.9227673808500634</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02449779337121</v>
+        <v>1.032548489763475</v>
       </c>
       <c r="J13">
-        <v>1.015161660587524</v>
+        <v>0.9920179473725974</v>
       </c>
       <c r="K13">
-        <v>1.019994578234822</v>
+        <v>1.003490234728335</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.00749582649101</v>
+        <v>0.9394909196948065</v>
       </c>
       <c r="N13">
-        <v>1.009225988268176</v>
+        <v>1.001584299831209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008484816239976</v>
+        <v>0.9614566380132569</v>
       </c>
       <c r="D14">
-        <v>1.016434168495512</v>
+        <v>0.9888543870029199</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.004039406578152</v>
+        <v>0.9242781893210497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024524889769138</v>
+        <v>1.032816030659686</v>
       </c>
       <c r="J14">
-        <v>1.01525690686159</v>
+        <v>0.9925637628397361</v>
       </c>
       <c r="K14">
-        <v>1.020079157639151</v>
+        <v>1.004006848644604</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.007733040539127</v>
+        <v>0.9408039086914138</v>
       </c>
       <c r="N14">
-        <v>1.009257297258361</v>
+        <v>1.00176370545232</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008582295213177</v>
+        <v>0.9620166276399059</v>
       </c>
       <c r="D15">
-        <v>1.016506446541734</v>
+        <v>0.989269391946801</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.004206403461338</v>
+        <v>0.9252039262234699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024541528541282</v>
+        <v>1.03297972913731</v>
       </c>
       <c r="J15">
-        <v>1.015315561578596</v>
+        <v>0.9928983625758371</v>
       </c>
       <c r="K15">
-        <v>1.020131226329853</v>
+        <v>1.004323478398622</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.007879161663091</v>
+        <v>0.9416083751451876</v>
       </c>
       <c r="N15">
-        <v>1.009276577859333</v>
+        <v>1.001873687737949</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009149425855894</v>
+        <v>0.9652379748865705</v>
       </c>
       <c r="D16">
-        <v>1.016926726158035</v>
+        <v>0.9916569893068088</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.005178040547414</v>
+        <v>0.9305164440920055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024637514868774</v>
+        <v>1.033915386860194</v>
       </c>
       <c r="J16">
-        <v>1.01565650487936</v>
+        <v>0.9948206103581857</v>
       </c>
       <c r="K16">
-        <v>1.020433624792093</v>
+        <v>1.006141405066506</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.008729131032007</v>
+        <v>0.9462240230410333</v>
       </c>
       <c r="N16">
-        <v>1.00938864819988</v>
+        <v>1.002505552148958</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009504961864336</v>
+        <v>0.9672261578724449</v>
       </c>
       <c r="D17">
-        <v>1.017189995186735</v>
+        <v>0.9931307495378126</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.005787214363248</v>
+        <v>0.9337848281888272</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024696968189819</v>
+        <v>1.034487522497999</v>
       </c>
       <c r="J17">
-        <v>1.015869971398944</v>
+        <v>0.9960047740811193</v>
       </c>
       <c r="K17">
-        <v>1.020622726635695</v>
+        <v>1.007260303233565</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.009261842572634</v>
+        <v>0.9490627943320602</v>
       </c>
       <c r="N17">
-        <v>1.009458813988622</v>
+        <v>1.002894820848738</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00971226450854</v>
+        <v>0.9683745112575668</v>
       </c>
       <c r="D18">
-        <v>1.017343425240594</v>
+        <v>0.9939820030478888</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.006142426307959</v>
+        <v>0.9356691420601528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024731373632327</v>
+        <v>1.034816034200891</v>
       </c>
       <c r="J18">
-        <v>1.015994339430905</v>
+        <v>0.9966879322405563</v>
       </c>
       <c r="K18">
-        <v>1.020732815789373</v>
+        <v>1.007905429850405</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.009572403378979</v>
+        <v>0.9506990838059751</v>
       </c>
       <c r="N18">
-        <v>1.00949969262148</v>
+        <v>1.003119401557274</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009782936567418</v>
+        <v>0.9687641851678156</v>
       </c>
       <c r="D19">
-        <v>1.017395718808509</v>
+        <v>0.9942708625533309</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.006263526161091</v>
+        <v>0.9363079889784127</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024743058740236</v>
+        <v>1.034927176232466</v>
       </c>
       <c r="J19">
-        <v>1.016036721408711</v>
+        <v>0.9969196140136858</v>
       </c>
       <c r="K19">
-        <v>1.02077031759584</v>
+        <v>1.008124147792976</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.009678269498521</v>
+        <v>0.9512537820519575</v>
       </c>
       <c r="N19">
-        <v>1.009513623060337</v>
+        <v>1.003195565515962</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009466824028588</v>
+        <v>0.967014023994566</v>
       </c>
       <c r="D20">
-        <v>1.017161762387903</v>
+        <v>0.9929734998759063</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.005721867086884</v>
+        <v>0.93343646683458</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024690617612947</v>
+        <v>1.034426678801211</v>
       </c>
       <c r="J20">
-        <v>1.015847083294567</v>
+        <v>0.9958785102129128</v>
       </c>
       <c r="K20">
-        <v>1.020602459595867</v>
+        <v>1.007141037389267</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.00920470434463</v>
+        <v>0.9487602582327761</v>
       </c>
       <c r="N20">
-        <v>1.009451290817254</v>
+        <v>1.002853313546532</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008438222835778</v>
+        <v>0.9611883097483107</v>
       </c>
       <c r="D21">
-        <v>1.016399616638268</v>
+        <v>0.9886555366840822</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.003959585574474</v>
+        <v>0.9238343671772996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024516922265303</v>
+        <v>1.03273748524623</v>
       </c>
       <c r="J21">
-        <v>1.015228865386626</v>
+        <v>0.9924033884489226</v>
       </c>
       <c r="K21">
-        <v>1.020054260168746</v>
+        <v>1.003855068628001</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.007663194066968</v>
+        <v>0.9404182108880564</v>
       </c>
       <c r="N21">
-        <v>1.009248079603984</v>
+        <v>1.001710991172528</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007790815799254</v>
+        <v>0.9574148979966446</v>
       </c>
       <c r="D22">
-        <v>1.015919253837133</v>
+        <v>0.9858596744514568</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.002850538745415</v>
+        <v>0.9175760506367499</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024405258490922</v>
+        <v>1.031625854924989</v>
       </c>
       <c r="J22">
-        <v>1.014838872732139</v>
+        <v>0.9901450504545095</v>
       </c>
       <c r="K22">
-        <v>1.019707687285607</v>
+        <v>1.001716556642593</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.006692493663826</v>
+        <v>0.9349785118592497</v>
       </c>
       <c r="N22">
-        <v>1.009119880434558</v>
+        <v>1.000968719679473</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008134083637929</v>
+        <v>0.9594261756047878</v>
       </c>
       <c r="D23">
-        <v>1.016174014177117</v>
+        <v>0.9873497799399139</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.003438565568697</v>
+        <v>0.9209158173943228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024464686150774</v>
+        <v>1.032219987414342</v>
       </c>
       <c r="J23">
-        <v>1.015045738064096</v>
+        <v>0.9913494748329549</v>
       </c>
       <c r="K23">
-        <v>1.019891592030072</v>
+        <v>1.002857344289537</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.007207223799417</v>
+        <v>0.9378816413071843</v>
       </c>
       <c r="N23">
-        <v>1.009187882250011</v>
+        <v>1.001364582613247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009484057107896</v>
+        <v>0.9671099130552625</v>
       </c>
       <c r="D24">
-        <v>1.017174519976965</v>
+        <v>0.9930445800237075</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.00575139504279</v>
+        <v>0.933593944333667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024693488007733</v>
+        <v>1.034454187506687</v>
       </c>
       <c r="J24">
-        <v>1.015857425886511</v>
+        <v>0.995935586677799</v>
       </c>
       <c r="K24">
-        <v>1.020611618049815</v>
+        <v>1.007194951640782</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.009230523145781</v>
+        <v>0.9488970213905399</v>
       </c>
       <c r="N24">
-        <v>1.009454690362447</v>
+        <v>1.002872076533909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011047666730574</v>
+        <v>0.9755857719595264</v>
       </c>
       <c r="D25">
-        <v>1.018330437589426</v>
+        <v>0.999327114070348</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.00843106083834</v>
+        <v>0.9474482685075402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024948302193921</v>
+        <v>1.036843700900955</v>
       </c>
       <c r="J25">
-        <v>1.016793721230952</v>
+        <v>1.000963663625675</v>
       </c>
       <c r="K25">
-        <v>1.02143890021102</v>
+        <v>1.01193588471461</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.011572162353822</v>
+        <v>0.9609211163327851</v>
       </c>
       <c r="N25">
-        <v>1.009762428250256</v>
+        <v>1.004525109241245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9820298753682233</v>
+        <v>1.016042286599607</v>
       </c>
       <c r="D2">
-        <v>1.004100857474798</v>
+        <v>1.032225117398049</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9579048898592317</v>
+        <v>1.023571753972705</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038597898209533</v>
+        <v>1.052761738625432</v>
       </c>
       <c r="J2">
-        <v>1.004761684122151</v>
+        <v>1.03775353863387</v>
       </c>
       <c r="K2">
-        <v>1.015503354966248</v>
+        <v>1.043253043672625</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9699835896631804</v>
+        <v>1.034712181078084</v>
       </c>
       <c r="N2">
-        <v>1.005773901735699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016229910814797</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03604473941735</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041653930536269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9865424277478252</v>
+        <v>1.019962942734182</v>
       </c>
       <c r="D3">
-        <v>1.007440573550477</v>
+        <v>1.03485725722982</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9651944462788108</v>
+        <v>1.026666336072946</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03978886619463</v>
+        <v>1.053911476905185</v>
       </c>
       <c r="J3">
-        <v>1.007406806221608</v>
+        <v>1.039923805937475</v>
       </c>
       <c r="K3">
-        <v>1.017979127904984</v>
+        <v>1.045062743825516</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9762929315039188</v>
+        <v>1.036969017055332</v>
       </c>
       <c r="N3">
-        <v>1.00664368387925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016975632925084</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03783088266282</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042930882373071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.989390338358225</v>
+        <v>1.022448187503476</v>
       </c>
       <c r="D4">
-        <v>1.009546361940209</v>
+        <v>1.03652871684727</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9697830624336002</v>
+        <v>1.028636742930862</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040522751270199</v>
+        <v>1.054629327336098</v>
       </c>
       <c r="J4">
-        <v>1.009069389971996</v>
+        <v>1.041294590089902</v>
       </c>
       <c r="K4">
-        <v>1.019530920146214</v>
+        <v>1.046205389776103</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9802603994045408</v>
+        <v>1.038401409166182</v>
       </c>
       <c r="N4">
-        <v>1.007190404520458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017446866345799</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038964528298873</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.0437397155029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.990571046796981</v>
+        <v>1.023485508500131</v>
       </c>
       <c r="D5">
-        <v>1.010418862447377</v>
+        <v>1.037229331816207</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9716830392836523</v>
+        <v>1.029459622668925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040822687377177</v>
+        <v>1.054928118622358</v>
       </c>
       <c r="J5">
-        <v>1.009757037268774</v>
+        <v>1.041867458214967</v>
       </c>
       <c r="K5">
-        <v>1.020171658439157</v>
+        <v>1.046684401184982</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9819021536605873</v>
+        <v>1.03899901349951</v>
       </c>
       <c r="N5">
-        <v>1.007416533118091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017644976427651</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.03943749291489</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044085545040167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9907683413915241</v>
+        <v>1.023664487167577</v>
       </c>
       <c r="D6">
-        <v>1.010564622633884</v>
+        <v>1.037353018852886</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.972000393365346</v>
+        <v>1.029599734721943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040872550100396</v>
+        <v>1.05498174954467</v>
       </c>
       <c r="J6">
-        <v>1.009871845277448</v>
+        <v>1.041968565610579</v>
       </c>
       <c r="K6">
-        <v>1.020278569562136</v>
+        <v>1.046770854880138</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9821763151726254</v>
+        <v>1.039101328122733</v>
       </c>
       <c r="N6">
-        <v>1.007454287234908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017681307174518</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039518468194203</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044155370700119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9894061792085164</v>
+        <v>1.022476909714877</v>
       </c>
       <c r="D7">
-        <v>1.009558069949583</v>
+        <v>1.036555510474706</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9698085622246448</v>
+        <v>1.028654170302793</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040526792514161</v>
+        <v>1.05464360402997</v>
       </c>
       <c r="J7">
-        <v>1.009078622220445</v>
+        <v>1.041316733246856</v>
       </c>
       <c r="K7">
-        <v>1.019539526953255</v>
+        <v>1.046229027188155</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9802824376781831</v>
+        <v>1.038415750763358</v>
       </c>
       <c r="N7">
-        <v>1.007193440474126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017458239190662</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038975878735619</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043776433072075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9835702522694287</v>
+        <v>1.017396809180006</v>
       </c>
       <c r="D8">
-        <v>1.005241246405187</v>
+        <v>1.033142993780037</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9603959916302911</v>
+        <v>1.02463239413834</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039008131571417</v>
+        <v>1.053168542375071</v>
       </c>
       <c r="J8">
-        <v>1.005666023782955</v>
+        <v>1.03851212713181</v>
       </c>
       <c r="K8">
-        <v>1.016350686663663</v>
+        <v>1.043891983912406</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9721405617751216</v>
+        <v>1.035488729385172</v>
       </c>
       <c r="N8">
-        <v>1.006071265921291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016495419731179</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036659328900072</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042128514839641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9727017001784659</v>
+        <v>1.008007530373988</v>
       </c>
       <c r="D9">
-        <v>0.9971895882999738</v>
+        <v>1.026849620191504</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9427479690498295</v>
+        <v>1.017279436741981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036040365780274</v>
+        <v>1.050347365763015</v>
       </c>
       <c r="J9">
-        <v>0.9992566783518921</v>
+        <v>1.033280656723728</v>
       </c>
       <c r="K9">
-        <v>1.010328427637398</v>
+        <v>1.03952159905951</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.956843644492385</v>
+        <v>1.030098252676165</v>
       </c>
       <c r="N9">
-        <v>1.003963891976463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014694916433498</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032393092243116</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039035219006855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9650117319532932</v>
+        <v>1.001587707287211</v>
       </c>
       <c r="D10">
-        <v>0.9914892902686753</v>
+        <v>1.022581292197537</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9301440275595088</v>
+        <v>1.012526187001517</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033850017167456</v>
+        <v>1.048397542487425</v>
       </c>
       <c r="J10">
-        <v>0.9946857503255359</v>
+        <v>1.02973847338999</v>
       </c>
       <c r="K10">
-        <v>1.006013927437123</v>
+        <v>1.036554462442195</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9459005138610008</v>
+        <v>1.026672901349694</v>
       </c>
       <c r="N10">
-        <v>1.002461220763892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013496523509976</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029734110132943</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036954043999215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9615636806752593</v>
+        <v>0.9998407181838798</v>
       </c>
       <c r="D11">
-        <v>0.9889337143573852</v>
+        <v>1.021532099279695</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9244551972250125</v>
+        <v>1.013041263077836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032847345127916</v>
+        <v>1.048109914555028</v>
       </c>
       <c r="J11">
-        <v>0.9926277318890826</v>
+        <v>1.029220124967555</v>
       </c>
       <c r="K11">
-        <v>1.004067386274867</v>
+        <v>1.036059063501719</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9409577322478218</v>
+        <v>1.027721360833598</v>
       </c>
       <c r="N11">
-        <v>1.001784731852262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013471690256152</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031003859122615</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036636551191064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.96026393351536</v>
+        <v>0.9995283424434028</v>
       </c>
       <c r="D12">
-        <v>0.9879705409684737</v>
+        <v>1.021392938837658</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9223042191500651</v>
+        <v>1.014090882477436</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032466378631594</v>
+        <v>1.048180557566257</v>
       </c>
       <c r="J12">
-        <v>0.9918506841500755</v>
+        <v>1.029352677086608</v>
       </c>
       <c r="K12">
-        <v>1.003331893170039</v>
+        <v>1.036121448623803</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9390883799534752</v>
+        <v>1.028953012572071</v>
       </c>
       <c r="N12">
-        <v>1.001529322329529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013621150842041</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032306677199474</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036680659297786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9605436138939696</v>
+        <v>1.000315160842868</v>
       </c>
       <c r="D13">
-        <v>0.9881777885349602</v>
+        <v>1.021963489146424</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9227673808500634</v>
+        <v>1.015650370659183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032548489763475</v>
+        <v>1.048547483829316</v>
       </c>
       <c r="J13">
-        <v>0.9920179473725974</v>
+        <v>1.030013616213347</v>
       </c>
       <c r="K13">
-        <v>1.003490234728335</v>
+        <v>1.036638999517522</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9394909196948065</v>
+        <v>1.030440704858105</v>
       </c>
       <c r="N13">
-        <v>1.001584299831209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013926760348073</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033761087221117</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037044096830082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9614566380132569</v>
+        <v>1.001348209132847</v>
       </c>
       <c r="D14">
-        <v>0.9888543870029199</v>
+        <v>1.022673883469315</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9242781893210497</v>
+        <v>1.016944105316823</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032816030659686</v>
+        <v>1.048930471211636</v>
       </c>
       <c r="J14">
-        <v>0.9925637628397361</v>
+        <v>1.030700582450125</v>
       </c>
       <c r="K14">
-        <v>1.004006848644604</v>
+        <v>1.037196932643701</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9408039086914138</v>
+        <v>1.031569961350283</v>
       </c>
       <c r="N14">
-        <v>1.00176370545232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014204979175312</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034827761983947</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037439992536153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9620166276399059</v>
+        <v>1.001859309535486</v>
       </c>
       <c r="D15">
-        <v>0.989269391946801</v>
+        <v>1.023019166632621</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9252039262234699</v>
+        <v>1.017421860146836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03297972913731</v>
+        <v>1.049100523491033</v>
       </c>
       <c r="J15">
-        <v>0.9928983625758371</v>
+        <v>1.031004321060239</v>
       </c>
       <c r="K15">
-        <v>1.004323478398622</v>
+        <v>1.037450059099918</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.9416083751451876</v>
+        <v>1.031952392654128</v>
       </c>
       <c r="N15">
-        <v>1.001873687737949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01431689516769</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035167699651254</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037624813588226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9652379748865705</v>
+        <v>1.004412108283918</v>
       </c>
       <c r="D16">
-        <v>0.9916569893068088</v>
+        <v>1.024707428749126</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9305164440920055</v>
+        <v>1.019173272418322</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033915386860194</v>
+        <v>1.049864432717238</v>
       </c>
       <c r="J16">
-        <v>0.9948206103581857</v>
+        <v>1.032375531890335</v>
       </c>
       <c r="K16">
-        <v>1.006141405066506</v>
+        <v>1.038609054995833</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9462240230410333</v>
+        <v>1.033169079416068</v>
       </c>
       <c r="N16">
-        <v>1.002505552148958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014766230868412</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036090514820558</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038447415383295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9672261578724449</v>
+        <v>1.005842072320452</v>
       </c>
       <c r="D17">
-        <v>0.9931307495378126</v>
+        <v>1.025640993759323</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9337848281888272</v>
+        <v>1.019846513645446</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034487522497999</v>
+        <v>1.050253580418203</v>
       </c>
       <c r="J17">
-        <v>0.9960047740811193</v>
+        <v>1.033077584800877</v>
       </c>
       <c r="K17">
-        <v>1.007260303233565</v>
+        <v>1.039213899253636</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9490627943320602</v>
+        <v>1.033515285508754</v>
       </c>
       <c r="N17">
-        <v>1.002894820848738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014969647109908</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036234656370103</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038877638630653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9683745112575668</v>
+        <v>1.006373224133877</v>
       </c>
       <c r="D18">
-        <v>0.9939820030478888</v>
+        <v>1.025954424554567</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9356691420601528</v>
+        <v>1.01947760121141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034816034200891</v>
+        <v>1.050317875953431</v>
       </c>
       <c r="J18">
-        <v>0.9966879322405563</v>
+        <v>1.033197602237128</v>
       </c>
       <c r="K18">
-        <v>1.007905429850405</v>
+        <v>1.039339700844209</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9506990838059751</v>
+        <v>1.032968387261499</v>
       </c>
       <c r="N18">
-        <v>1.003119401557274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01494544594153</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035563557854278</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038954988699932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9687641851678156</v>
+        <v>1.00604528901212</v>
       </c>
       <c r="D19">
-        <v>0.9942708625533309</v>
+        <v>1.02568001030301</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9363079889784127</v>
+        <v>1.018052261796602</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034927176232466</v>
+        <v>1.050069137492552</v>
       </c>
       <c r="J19">
-        <v>0.9969196140136858</v>
+        <v>1.032748538059569</v>
       </c>
       <c r="K19">
-        <v>1.008124147792976</v>
+        <v>1.039007473800177</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9512537820519575</v>
+        <v>1.031503586232767</v>
       </c>
       <c r="N19">
-        <v>1.003195565515962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014700488011519</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03407787263739</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038726469327715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.967014023994566</v>
+        <v>1.003296832978128</v>
       </c>
       <c r="D20">
-        <v>0.9929734998759063</v>
+        <v>1.023734943874049</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.93343646683458</v>
+        <v>1.013786532485724</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034426678801211</v>
+        <v>1.048936066507354</v>
       </c>
       <c r="J20">
-        <v>0.9958785102129128</v>
+        <v>1.030701256139229</v>
       </c>
       <c r="K20">
-        <v>1.007141037389267</v>
+        <v>1.037372898637594</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9487602582327761</v>
+        <v>1.027591218088913</v>
       </c>
       <c r="N20">
-        <v>1.002853313546532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01383413132084</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030450207593997</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037574686700277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9611883097483107</v>
+        <v>0.9982421198733564</v>
       </c>
       <c r="D21">
-        <v>0.9886555366840822</v>
+        <v>1.020357496717054</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9238343671772996</v>
+        <v>1.009709554425351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03273748524623</v>
+        <v>1.047329919649663</v>
       </c>
       <c r="J21">
-        <v>0.9924033884489226</v>
+        <v>1.027813521634764</v>
       </c>
       <c r="K21">
-        <v>1.003855068628001</v>
+        <v>1.034963188342485</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9404182108880564</v>
+        <v>1.024509281981361</v>
       </c>
       <c r="N21">
-        <v>1.001710991172528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012827248533733</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027969732115619</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035874166139272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9574148979966446</v>
+        <v>0.9950443790843193</v>
       </c>
       <c r="D22">
-        <v>0.9858596744514568</v>
+        <v>1.018225093388619</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9175760506367499</v>
+        <v>1.007259912236492</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031625854924989</v>
+        <v>1.046312825894075</v>
       </c>
       <c r="J22">
-        <v>0.9901450504545095</v>
+        <v>1.026003630808562</v>
       </c>
       <c r="K22">
-        <v>1.001716556642593</v>
+        <v>1.033443951845842</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9349785118592497</v>
+        <v>1.022688907847445</v>
       </c>
       <c r="N22">
-        <v>1.000968719679473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012200469947411</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026529000901858</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034786517887439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9594261756047878</v>
+        <v>0.9967324980195033</v>
       </c>
       <c r="D23">
-        <v>0.9873497799399139</v>
+        <v>1.019343791287768</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9209158173943228</v>
+        <v>1.008556670528135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032219987414342</v>
+        <v>1.046845831614505</v>
       </c>
       <c r="J23">
-        <v>0.9913494748329549</v>
+        <v>1.026953941740945</v>
       </c>
       <c r="K23">
-        <v>1.002857344289537</v>
+        <v>1.03423737192341</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9378816413071843</v>
+        <v>1.023651572980425</v>
       </c>
       <c r="N23">
-        <v>1.001364582613247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012525380302566</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02729090053847</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035337873308583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9671099130552625</v>
+        <v>1.003248036693212</v>
       </c>
       <c r="D24">
-        <v>0.9930445800237075</v>
+        <v>1.02368209532214</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.933593944333667</v>
+        <v>1.013578139070653</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034454187506687</v>
+        <v>1.048888693642894</v>
       </c>
       <c r="J24">
-        <v>0.995935586677799</v>
+        <v>1.030621626853789</v>
       </c>
       <c r="K24">
-        <v>1.007194951640782</v>
+        <v>1.037305710190116</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9488970213905399</v>
+        <v>1.027370930603125</v>
       </c>
       <c r="N24">
-        <v>1.002872076533909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01378670892531</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030234571705359</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03749983881396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9755857719595264</v>
+        <v>1.01051041886453</v>
       </c>
       <c r="D25">
-        <v>0.999327114070348</v>
+        <v>1.028535411301361</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9474482685075402</v>
+        <v>1.019222599704424</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036843700900955</v>
+        <v>1.051118126506516</v>
       </c>
       <c r="J25">
-        <v>1.000963663625675</v>
+        <v>1.034689169878727</v>
       </c>
       <c r="K25">
-        <v>1.01193588471461</v>
+        <v>1.040706331979053</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9609211163327851</v>
+        <v>1.03152966223558</v>
       </c>
       <c r="N25">
-        <v>1.004525109241245</v>
+        <v>1.015186017952498</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033525968952601</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039901383810339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016042286599607</v>
+        <v>1.014898015754718</v>
       </c>
       <c r="D2">
-        <v>1.032225117398049</v>
+        <v>1.030578797161048</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.023571753972705</v>
+        <v>1.023076066153724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052761738625432</v>
+        <v>1.051850834889951</v>
       </c>
       <c r="J2">
-        <v>1.03775353863387</v>
+        <v>1.036642080638762</v>
       </c>
       <c r="K2">
-        <v>1.043253043672625</v>
+        <v>1.04162794487469</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.034712181078084</v>
+        <v>1.034223009851019</v>
       </c>
       <c r="N2">
-        <v>1.016229910814797</v>
+        <v>1.016770418717941</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03604473941735</v>
+        <v>1.035657590670854</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041653930536269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040513594183203</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023081963128795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019962942734182</v>
+        <v>1.018592344920594</v>
       </c>
       <c r="D3">
-        <v>1.03485725722982</v>
+        <v>1.032953931855268</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.026666336072946</v>
+        <v>1.026073425436014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053911476905185</v>
+        <v>1.052845192744067</v>
       </c>
       <c r="J3">
-        <v>1.039923805937475</v>
+        <v>1.038588683907279</v>
       </c>
       <c r="K3">
-        <v>1.045062743825516</v>
+        <v>1.043181833265168</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.036969017055332</v>
+        <v>1.036383216679255</v>
       </c>
       <c r="N3">
-        <v>1.016975632925084</v>
+        <v>1.017295629933942</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03783088266282</v>
+        <v>1.037367259066106</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042930882373071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041609389135313</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023398671744008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022448187503476</v>
+        <v>1.02093584687637</v>
       </c>
       <c r="D4">
-        <v>1.03652871684727</v>
+        <v>1.034463690407895</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.028636742930862</v>
+        <v>1.027983090641425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054629327336098</v>
+        <v>1.053465146399415</v>
       </c>
       <c r="J4">
-        <v>1.041294590089902</v>
+        <v>1.039818760730652</v>
       </c>
       <c r="K4">
-        <v>1.046205389776103</v>
+        <v>1.044163228292046</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.038401409166182</v>
+        <v>1.037755119548575</v>
       </c>
       <c r="N4">
-        <v>1.017446866345799</v>
+        <v>1.017627799688455</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038964528298873</v>
+        <v>1.038453032123721</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0437397155029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04230428801251</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023596201441638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023485508500131</v>
+        <v>1.021914120563905</v>
       </c>
       <c r="D5">
-        <v>1.037229331816207</v>
+        <v>1.035096924702342</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.029459622668925</v>
+        <v>1.028780698169766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054928118622358</v>
+        <v>1.053723083265421</v>
       </c>
       <c r="J5">
-        <v>1.041867458214967</v>
+        <v>1.040332880189151</v>
       </c>
       <c r="K5">
-        <v>1.046684401184982</v>
+        <v>1.044574981655648</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.03899901349951</v>
+        <v>1.038327531399549</v>
       </c>
       <c r="N5">
-        <v>1.017644976427651</v>
+        <v>1.017767427607702</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.03943749291489</v>
+        <v>1.038906058872656</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044085545040167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042603275853015</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023679207955634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023664487167577</v>
+        <v>1.022082597638436</v>
       </c>
       <c r="D6">
-        <v>1.037353018852886</v>
+        <v>1.03520879771643</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.029599734721943</v>
+        <v>1.028916314886362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05498174954467</v>
+        <v>1.053769514746152</v>
       </c>
       <c r="J6">
-        <v>1.041968565610579</v>
+        <v>1.040423542400243</v>
       </c>
       <c r="K6">
-        <v>1.046770854880138</v>
+        <v>1.044649643561822</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.039101328122733</v>
+        <v>1.038425365458467</v>
       </c>
       <c r="N6">
-        <v>1.017681307174518</v>
+        <v>1.017792934589809</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039518468194203</v>
+        <v>1.038983488138245</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044155370700119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042665637311243</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023695118462512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022476909714877</v>
+        <v>1.020972407227761</v>
       </c>
       <c r="D7">
-        <v>1.036555510474706</v>
+        <v>1.034495714620633</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028654170302793</v>
+        <v>1.028003909011079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05464360402997</v>
+        <v>1.053483393336681</v>
       </c>
       <c r="J7">
-        <v>1.041316733246856</v>
+        <v>1.039848536465164</v>
       </c>
       <c r="K7">
-        <v>1.046229027188155</v>
+        <v>1.044192029188052</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.038415750763358</v>
+        <v>1.037772811168834</v>
       </c>
       <c r="N7">
-        <v>1.017458239190662</v>
+        <v>1.017665023947666</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038975878735619</v>
+        <v>1.038467033894742</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043776433072075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042346665604255</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023605588045668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017396809180006</v>
+        <v>1.016204772874082</v>
       </c>
       <c r="D8">
-        <v>1.033142993780037</v>
+        <v>1.03143051015585</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.02463239413834</v>
+        <v>1.024116257489556</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053168542375071</v>
+        <v>1.052220285705051</v>
       </c>
       <c r="J8">
-        <v>1.03851212713181</v>
+        <v>1.037353128900669</v>
       </c>
       <c r="K8">
-        <v>1.043891983912406</v>
+        <v>1.04220092251455</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.035488729385172</v>
+        <v>1.034979174505721</v>
       </c>
       <c r="N8">
-        <v>1.016495419731179</v>
+        <v>1.017046869615558</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036659328900072</v>
+        <v>1.036256048099237</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042128514839641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040943814017736</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023205893020671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008007530373988</v>
+        <v>1.007374491164039</v>
       </c>
       <c r="D9">
-        <v>1.026849620191504</v>
+        <v>1.025764495041055</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.017279436741981</v>
+        <v>1.017004439081146</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050347365763015</v>
+        <v>1.049778038478255</v>
       </c>
       <c r="J9">
-        <v>1.033280656723728</v>
+        <v>1.032669498003053</v>
       </c>
       <c r="K9">
-        <v>1.03952159905951</v>
+        <v>1.03845294762894</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.030098252676165</v>
+        <v>1.02982752654609</v>
       </c>
       <c r="N9">
-        <v>1.014694916433498</v>
+        <v>1.015792295808836</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032393092243116</v>
+        <v>1.032178828184096</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039035219006855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038290323542778</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022425878712825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001587707287211</v>
+        <v>1.001385607694672</v>
       </c>
       <c r="D10">
-        <v>1.022581292197537</v>
+        <v>1.02195899658708</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.012526187001517</v>
+        <v>1.012438281811256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048397542487425</v>
+        <v>1.048110461026619</v>
       </c>
       <c r="J10">
-        <v>1.02973847338999</v>
+        <v>1.029544358552259</v>
       </c>
       <c r="K10">
-        <v>1.036554462442195</v>
+        <v>1.035942779165434</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.026672901349694</v>
+        <v>1.026586533029713</v>
       </c>
       <c r="N10">
-        <v>1.013496523509976</v>
+        <v>1.015083523406875</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029734110132943</v>
+        <v>1.029665758707317</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036954043999215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036533937768756</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021906495982818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9998407181838798</v>
+        <v>0.9997617885499541</v>
       </c>
       <c r="D11">
-        <v>1.021532099279695</v>
+        <v>1.021028165441468</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.013041263077836</v>
+        <v>1.013007179191325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048109914555028</v>
+        <v>1.047898846893728</v>
       </c>
       <c r="J11">
-        <v>1.029220124967555</v>
+        <v>1.029144480755974</v>
       </c>
       <c r="K11">
-        <v>1.036059063501719</v>
+        <v>1.035564125873288</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.027721360833598</v>
+        <v>1.027687898388188</v>
       </c>
       <c r="N11">
-        <v>1.013471690256152</v>
+        <v>1.015299807066479</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031003859122615</v>
+        <v>1.0309773907145</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036636551191064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036302204030488</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021909032740378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9995283424434028</v>
+        <v>0.9994573115825839</v>
       </c>
       <c r="D12">
-        <v>1.021392938837658</v>
+        <v>1.020892377021973</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.014090882477436</v>
+        <v>1.014060373341293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048180557566257</v>
+        <v>1.047973334519409</v>
       </c>
       <c r="J12">
-        <v>1.029352677086608</v>
+        <v>1.029284656728326</v>
       </c>
       <c r="K12">
-        <v>1.036121448623803</v>
+        <v>1.035629967201887</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.028953012572071</v>
+        <v>1.028923066984615</v>
       </c>
       <c r="N12">
-        <v>1.013621150842041</v>
+        <v>1.015499052548867</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032306677199474</v>
+        <v>1.032282998715509</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036680659297786</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036348754845787</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021972096782469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000315160842868</v>
+        <v>1.000148445884363</v>
       </c>
       <c r="D13">
-        <v>1.021963489146424</v>
+        <v>1.021367628622769</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.015650370659183</v>
+        <v>1.015579072506346</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048547483829316</v>
+        <v>1.048281158683103</v>
       </c>
       <c r="J13">
-        <v>1.030013616213347</v>
+        <v>1.029853926481474</v>
       </c>
       <c r="K13">
-        <v>1.036638999517522</v>
+        <v>1.036053897707433</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.030440704858105</v>
+        <v>1.030370714102898</v>
       </c>
       <c r="N13">
-        <v>1.013926760348073</v>
+        <v>1.015671418218925</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033761087221117</v>
+        <v>1.033705758369914</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037044096830082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036645751366813</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022093473950514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001348209132847</v>
+        <v>1.001071612743342</v>
       </c>
       <c r="D14">
-        <v>1.022673883469315</v>
+        <v>1.021970577755836</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.016944105316823</v>
+        <v>1.016826107658295</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048930471211636</v>
+        <v>1.048596703903536</v>
       </c>
       <c r="J14">
-        <v>1.030700582450125</v>
+        <v>1.03043546967142</v>
       </c>
       <c r="K14">
-        <v>1.037196932643701</v>
+        <v>1.036506165450225</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.031569961350283</v>
+        <v>1.031454096703307</v>
       </c>
       <c r="N14">
-        <v>1.014204979175312</v>
+        <v>1.015778808580958</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034827761983947</v>
+        <v>1.034736181473717</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037439992536153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036967071031365</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022203534667227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001859309535486</v>
+        <v>1.001532192618233</v>
       </c>
       <c r="D15">
-        <v>1.023019166632621</v>
+        <v>1.022266905079381</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.017421860146836</v>
+        <v>1.017282383183946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049100523491033</v>
+        <v>1.048735818470829</v>
       </c>
       <c r="J15">
-        <v>1.031004321060239</v>
+        <v>1.030690665231841</v>
       </c>
       <c r="K15">
-        <v>1.037450059099918</v>
+        <v>1.036711106544968</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.031952392654128</v>
+        <v>1.031815416769623</v>
       </c>
       <c r="N15">
-        <v>1.01431689516769</v>
+        <v>1.015809681401934</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035167699651254</v>
+        <v>1.03505943547127</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037624813588226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037118392908474</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022249054142151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004412108283918</v>
+        <v>1.00385698695452</v>
       </c>
       <c r="D16">
-        <v>1.024707428749126</v>
+        <v>1.023733144682577</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.019173272418322</v>
+        <v>1.018936526111377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049864432717238</v>
+        <v>1.049359105686579</v>
       </c>
       <c r="J16">
-        <v>1.032375531890335</v>
+        <v>1.03184210998063</v>
       </c>
       <c r="K16">
-        <v>1.038609054995833</v>
+        <v>1.037651256065562</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.033169079416068</v>
+        <v>1.032936391568889</v>
       </c>
       <c r="N16">
-        <v>1.014766230868412</v>
+        <v>1.01589971921633</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036090514820558</v>
+        <v>1.035906595702675</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038447415383295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037786562007402</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022438565508851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005842072320452</v>
+        <v>1.005178303160161</v>
       </c>
       <c r="D17">
-        <v>1.025640993759323</v>
+        <v>1.024557773014804</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.019846513645446</v>
+        <v>1.019563020153502</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050253580418203</v>
+        <v>1.049679716954719</v>
       </c>
       <c r="J17">
-        <v>1.033077584800877</v>
+        <v>1.032438930998714</v>
       </c>
       <c r="K17">
-        <v>1.039213899253636</v>
+        <v>1.03814849376635</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.033515285508754</v>
+        <v>1.033236518274846</v>
       </c>
       <c r="N17">
-        <v>1.014969647109908</v>
+        <v>1.015943519424671</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036234656370103</v>
+        <v>1.036014293528547</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038877638630653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038140951748353</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022528531062724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006373224133877</v>
+        <v>1.005688047317711</v>
       </c>
       <c r="D18">
-        <v>1.025954424554567</v>
+        <v>1.024848156568403</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.01947760121141</v>
+        <v>1.019184040349025</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050317875953431</v>
+        <v>1.049729452748963</v>
       </c>
       <c r="J18">
-        <v>1.033197602237128</v>
+        <v>1.032537876048103</v>
       </c>
       <c r="K18">
-        <v>1.039339700844209</v>
+        <v>1.038251333095111</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.032968387261499</v>
+        <v>1.032679649466617</v>
       </c>
       <c r="N18">
-        <v>1.01494544594153</v>
+        <v>1.01588947998531</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035563557854278</v>
+        <v>1.035335265479034</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038954988699932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038200929089786</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022521678306227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00604528901212</v>
+        <v>1.005417430429512</v>
       </c>
       <c r="D19">
-        <v>1.02568001030301</v>
+        <v>1.02463028472811</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.018052261796602</v>
+        <v>1.017781916457312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050069137492552</v>
+        <v>1.049515729093538</v>
       </c>
       <c r="J19">
-        <v>1.032748538059569</v>
+        <v>1.032143884284235</v>
       </c>
       <c r="K19">
-        <v>1.039007473800177</v>
+        <v>1.037974653446768</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.031503586232767</v>
+        <v>1.03123767461926</v>
       </c>
       <c r="N19">
-        <v>1.014700488011519</v>
+        <v>1.015717455154937</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03407787263739</v>
+        <v>1.033867558470061</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038726469327715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038012311733651</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022419968263369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003296832978128</v>
+        <v>1.002946462094326</v>
       </c>
       <c r="D20">
-        <v>1.023734943874049</v>
+        <v>1.022964852324541</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.013786532485724</v>
+        <v>1.013634191213594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048936066507354</v>
+        <v>1.048556369685065</v>
       </c>
       <c r="J20">
-        <v>1.030701256139229</v>
+        <v>1.030364273171421</v>
       </c>
       <c r="K20">
-        <v>1.037372898637594</v>
+        <v>1.036615564384318</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.027591218088913</v>
+        <v>1.027441462830258</v>
       </c>
       <c r="N20">
-        <v>1.01383413132084</v>
+        <v>1.015205909145209</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030450207593997</v>
+        <v>1.030331690650195</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037574686700277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037055703383054</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022049756879697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982421198733564</v>
+        <v>0.9983924466789583</v>
       </c>
       <c r="D21">
-        <v>1.020357496717054</v>
+        <v>1.020073147786412</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.009709554425351</v>
+        <v>1.00977507749563</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047329919649663</v>
+        <v>1.047257494258069</v>
       </c>
       <c r="J21">
-        <v>1.027813521634764</v>
+        <v>1.027957533132728</v>
       </c>
       <c r="K21">
-        <v>1.034963188342485</v>
+        <v>1.034683952650364</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.024509281981361</v>
+        <v>1.024573594723251</v>
       </c>
       <c r="N21">
-        <v>1.012827248533733</v>
+        <v>1.014986294800641</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027969732115619</v>
+        <v>1.028020632242354</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035874166139272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035693547109559</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021646282176472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950443790843193</v>
+        <v>0.9955113729044193</v>
       </c>
       <c r="D22">
-        <v>1.018225093388619</v>
+        <v>1.018247232706741</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.007259912236492</v>
+        <v>1.007463679903771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046312825894075</v>
+        <v>1.046433805951692</v>
       </c>
       <c r="J22">
-        <v>1.026003630808562</v>
+        <v>1.026449848326764</v>
       </c>
       <c r="K22">
-        <v>1.033443951845842</v>
+        <v>1.033465672867978</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.022688907847445</v>
+        <v>1.022888715815887</v>
       </c>
       <c r="N22">
-        <v>1.012200469947411</v>
+        <v>1.014849236795224</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026529000901858</v>
+        <v>1.026687138638829</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034786517887439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034817391140025</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021392174275364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9967324980195033</v>
+        <v>0.9970158205045291</v>
       </c>
       <c r="D23">
-        <v>1.019343791287768</v>
+        <v>1.019191825848438</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.008556670528135</v>
+        <v>1.008680224674241</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046845831614505</v>
+        <v>1.046856012534239</v>
       </c>
       <c r="J23">
-        <v>1.026953941740945</v>
+        <v>1.027225033571457</v>
       </c>
       <c r="K23">
-        <v>1.03423737192341</v>
+        <v>1.034088204078568</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.023651572980425</v>
+        <v>1.023772789351644</v>
       </c>
       <c r="N23">
-        <v>1.012525380302566</v>
+        <v>1.014871308184586</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02729090053847</v>
+        <v>1.027386836963591</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035337873308583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035246977614869</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021518016405083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003248036693212</v>
+        <v>1.002908468175676</v>
       </c>
       <c r="D24">
-        <v>1.02368209532214</v>
+        <v>1.02292200314096</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.013578139070653</v>
+        <v>1.013430384419982</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048888693642894</v>
+        <v>1.048515366586602</v>
       </c>
       <c r="J24">
-        <v>1.030621626853789</v>
+        <v>1.03029501685942</v>
       </c>
       <c r="K24">
-        <v>1.037305710190116</v>
+        <v>1.036558195044036</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.027370930603125</v>
+        <v>1.027225682201469</v>
       </c>
       <c r="N24">
-        <v>1.01378670892531</v>
+        <v>1.015171309216</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030234571705359</v>
+        <v>1.030119615656247</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03749983881396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036985122161087</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022026825227419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01051041886453</v>
+        <v>1.009711802827865</v>
       </c>
       <c r="D25">
-        <v>1.028535411301361</v>
+        <v>1.027271091601549</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.019222599704424</v>
+        <v>1.018875972353874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051118126506516</v>
+        <v>1.050439444448829</v>
       </c>
       <c r="J25">
-        <v>1.034689169878727</v>
+        <v>1.033916688899666</v>
       </c>
       <c r="K25">
-        <v>1.040706331979053</v>
+        <v>1.039460311493851</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.03152966223558</v>
+        <v>1.031188163192686</v>
       </c>
       <c r="N25">
-        <v>1.015186017952498</v>
+        <v>1.016098540188025</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033525968952601</v>
+        <v>1.033255692656363</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039901383810339</v>
+        <v>1.039033887976387</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022640090205509</v>
       </c>
     </row>
   </sheetData>
